--- a/DokkanUnits/100%/unitSummary.xlsx
+++ b/DokkanUnits/100%/unitSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanUnits\100%\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94EEE76-6A3F-41B4-9D09-6EE703A36AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652BF111-A033-4714-96AF-6BBE958060A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="83" windowWidth="11415" windowHeight="14279" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -1118,15 +1118,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1146,36 +1167,15 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1192,13 +1192,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ED3D1C1-032F-4DBC-8D2E-A6451C8DC32E}" name="Table1" displayName="Table1" ref="A1:M164" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ED3D1C1-032F-4DBC-8D2E-A6451C8DC32E}" name="Table1" displayName="Table1" ref="A1:M164" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:M164" xr:uid="{0ED3D1C1-032F-4DBC-8D2E-A6451C8DC32E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M164">
-    <sortCondition descending="1" ref="D1:D164"/>
+    <sortCondition descending="1" ref="E1:E164"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0B8E2250-BCBE-45BD-985A-65506E6CC67F}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0B8E2250-BCBE-45BD-985A-65506E6CC67F}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{32C1BF30-F6AF-4B84-B65B-2D5B6BD3B24A}" name="Name"/>
     <tableColumn id="3" xr3:uid="{3850E036-6561-49FE-8FA7-CC3EEEFF7D78}" name="Type"/>
     <tableColumn id="4" xr3:uid="{36B0D835-83BB-404B-B71A-21581C54F24F}" name="Evaluation"/>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1561,344 +1561,344 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>98.736357469329064</v>
       </c>
       <c r="E2">
-        <v>1.312524152420258</v>
+        <v>2.1322231441616442</v>
       </c>
       <c r="F2">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G2">
-        <v>1.17791577074125</v>
+        <v>1.6548652344862851</v>
       </c>
       <c r="H2">
-        <v>-0.19616692442743661</v>
+        <v>0.2449372985726776</v>
       </c>
       <c r="I2">
-        <v>0.67547660576506308</v>
+        <v>0.29391433520691918</v>
       </c>
       <c r="J2">
-        <v>2.0865648264610308</v>
+        <v>0.67213901447137259</v>
       </c>
       <c r="K2">
-        <v>1.0989583052612151</v>
+        <v>0.99323849043275281</v>
       </c>
       <c r="L2">
-        <v>1.5769733794837699</v>
+        <v>1.4930803063240521</v>
       </c>
       <c r="M2">
-        <v>1.806227572046093</v>
+        <v>1.9299379903794469</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>99.839144667895752</v>
+        <v>94.27109324283127</v>
       </c>
       <c r="E3">
-        <v>1.722373648290952</v>
+        <v>2.1322231441616442</v>
       </c>
       <c r="F3">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G3">
-        <v>0.96454364222373401</v>
+        <v>-0.2138841263860761</v>
       </c>
       <c r="H3">
-        <v>1.109744896153517</v>
+        <v>4.0072217558615883E-2</v>
       </c>
       <c r="I3">
-        <v>1.4398157710428129E-2</v>
+        <v>-0.32365417013734282</v>
       </c>
       <c r="J3">
-        <v>2.6739783521850069</v>
+        <v>0.35292824769995818</v>
       </c>
       <c r="K3">
-        <v>1.0989583052612151</v>
+        <v>1.09318580758316</v>
       </c>
       <c r="L3">
-        <v>1.1445823746501611</v>
+        <v>1.260596574477761</v>
       </c>
       <c r="M3">
-        <v>0.76742914530014583</v>
+        <v>2.1494720421201858</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>99.634076060677884</v>
+        <v>80.738609382154706</v>
       </c>
       <c r="E4">
-        <v>1.722373648290952</v>
+        <v>2.1322231441616442</v>
       </c>
       <c r="F4">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G4">
-        <v>1.8640535957779669</v>
+        <v>1.1214349131924961</v>
       </c>
       <c r="H4">
-        <v>1.6585212510588381</v>
+        <v>0.19666066476607211</v>
       </c>
       <c r="I4">
-        <v>9.802600859723154E-2</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J4">
-        <v>0.68052978199538938</v>
+        <v>1.102458500101607</v>
       </c>
       <c r="K4">
-        <v>1.0989583052612151</v>
+        <v>0.17201049671092161</v>
       </c>
       <c r="L4">
-        <v>1.6743697280949199</v>
+        <v>-1.3242032617482819E-2</v>
       </c>
       <c r="M4">
-        <v>2.8627798969387679</v>
+        <v>-0.40702986721804241</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>99.273466317287074</v>
+        <v>99.839144667895752</v>
       </c>
       <c r="E5">
         <v>1.722373648290952</v>
       </c>
       <c r="F5">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G5">
-        <v>-0.54597064993662181</v>
+        <v>0.96454364222373401</v>
       </c>
       <c r="H5">
-        <v>-0.34510202062922618</v>
+        <v>1.109744896153517</v>
       </c>
       <c r="I5">
-        <v>1.3812929438390511</v>
+        <v>1.4398157710428129E-2</v>
       </c>
       <c r="J5">
-        <v>0.67755751976388245</v>
+        <v>2.6739783521850069</v>
       </c>
       <c r="K5">
         <v>1.0989583052612151</v>
       </c>
       <c r="L5">
-        <v>1.8800159401546821</v>
+        <v>1.1445823746501611</v>
       </c>
       <c r="M5">
-        <v>3.2702357607631121</v>
+        <v>0.76742914530014583</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>98.736357469329064</v>
+        <v>99.634076060677884</v>
       </c>
       <c r="E6">
-        <v>2.1322231441616442</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F6">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G6">
-        <v>1.6548652344862851</v>
+        <v>1.8640535957779669</v>
       </c>
       <c r="H6">
-        <v>0.2449372985726776</v>
+        <v>1.6585212510588381</v>
       </c>
       <c r="I6">
-        <v>0.29391433520691918</v>
+        <v>9.802600859723154E-2</v>
       </c>
       <c r="J6">
-        <v>0.67213901447137259</v>
+        <v>0.68052978199538938</v>
       </c>
       <c r="K6">
-        <v>0.99323849043275281</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L6">
-        <v>1.4930803063240521</v>
+        <v>1.6743697280949199</v>
       </c>
       <c r="M6">
-        <v>1.9299379903794469</v>
+        <v>2.8627798969387679</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>97.565143537229858</v>
+        <v>99.273466317287074</v>
       </c>
       <c r="E7">
-        <v>0.49282516067887078</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F7">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G7">
-        <v>0.95059775147095482</v>
+        <v>-0.54597064993662181</v>
       </c>
       <c r="H7">
-        <v>-0.49379344171607747</v>
+        <v>-0.34510202062922618</v>
       </c>
       <c r="I7">
-        <v>-0.53449425950463025</v>
+        <v>1.3812929438390511</v>
       </c>
       <c r="J7">
-        <v>2.5446170525816059</v>
+        <v>0.67755751976388245</v>
       </c>
       <c r="K7">
-        <v>0.98321859642934817</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L7">
-        <v>1.1902220577499341</v>
+        <v>1.8800159401546821</v>
       </c>
       <c r="M7">
-        <v>0.59560647321871341</v>
+        <v>3.2702357607631121</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>97.276067580350869</v>
+        <v>96.059305002899706</v>
       </c>
       <c r="E8">
-        <v>1.312524152420258</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F8">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G8">
-        <v>1.6077978531956569</v>
+        <v>1.989566612552977</v>
       </c>
       <c r="H8">
-        <v>-0.1383589588278539</v>
+        <v>-5.541940278903202E-2</v>
       </c>
       <c r="I8">
-        <v>-0.2918511105172219</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J8">
-        <v>1.9605152303259969</v>
+        <v>0.86091850802657621</v>
       </c>
       <c r="K8">
-        <v>1.0989583052612151</v>
+        <v>1.078121762047044</v>
       </c>
       <c r="L8">
-        <v>0.63045009234505889</v>
+        <v>1.133947832465471</v>
       </c>
       <c r="M8">
-        <v>0.56283695583315252</v>
+        <v>0.79865712517870635</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>96.983746012336411</v>
+        <v>95.403082458837403</v>
       </c>
       <c r="E9">
-        <v>1.312524152420258</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F9">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G9">
-        <v>1.3306232744841771</v>
+        <v>0.75535528093205151</v>
       </c>
       <c r="H9">
-        <v>0.64508051671474276</v>
+        <v>1.088992120843673</v>
       </c>
       <c r="I9">
-        <v>0.5665123534449592</v>
+        <v>-0.42907421482098651</v>
       </c>
       <c r="J9">
-        <v>0.86292137927205548</v>
+        <v>1.709552490362378</v>
       </c>
       <c r="K9">
-        <v>1.0989583052612151</v>
+        <v>0.89390834793474994</v>
       </c>
       <c r="L9">
-        <v>1.0406540805396991</v>
+        <v>0.34308375697591831</v>
       </c>
       <c r="M9">
-        <v>1.0481154378153501</v>
+        <v>0.88798022880829941</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>96.059305002899706</v>
+        <v>93.839109300626561</v>
       </c>
       <c r="E10">
         <v>1.722373648290952</v>
@@ -1907,80 +1907,80 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G10">
-        <v>1.989566612552977</v>
+        <v>-4.695765094394168E-3</v>
       </c>
       <c r="H10">
-        <v>-5.541940278903202E-2</v>
+        <v>1.262959577373874</v>
       </c>
       <c r="I10">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J10">
-        <v>0.86091850802657621</v>
+        <v>0.65238703126365527</v>
       </c>
       <c r="K10">
-        <v>1.078121762047044</v>
+        <v>1.073221256216301</v>
       </c>
       <c r="L10">
-        <v>1.133947832465471</v>
+        <v>1.0730962729346609</v>
       </c>
       <c r="M10">
-        <v>0.79865712517870635</v>
+        <v>1.714344881443348</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>95.497495749071192</v>
+        <v>80.838602278319328</v>
       </c>
       <c r="E11">
-        <v>0.90267465654956414</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F11">
-        <v>5.0273598918352116</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G11">
-        <v>0.1696278693153413</v>
+        <v>1.1632725854508319</v>
       </c>
       <c r="H11">
-        <v>-0.13785009585741301</v>
+        <v>-3.7599601637510409E-2</v>
       </c>
       <c r="I11">
-        <v>-0.1128140807700556</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J11">
-        <v>2.4187586501270988</v>
+        <v>0.49501911107995339</v>
       </c>
       <c r="K11">
-        <v>1.0989583052612151</v>
+        <v>0.32868404045797162</v>
       </c>
       <c r="L11">
-        <v>0.43434664846889082</v>
+        <v>0.54198827141309514</v>
       </c>
       <c r="M11">
-        <v>-0.46250204773865439</v>
+        <v>0.16313652442996199</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>95.403082458837403</v>
+        <v>79.393300662267151</v>
       </c>
       <c r="E12">
         <v>1.722373648290952</v>
@@ -1989,162 +1989,162 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G12">
-        <v>0.75535528093205151</v>
+        <v>-0.40389688789268757</v>
       </c>
       <c r="H12">
-        <v>1.088992120843673</v>
+        <v>0.75865889562359667</v>
       </c>
       <c r="I12">
-        <v>-0.42907421482098651</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J12">
-        <v>1.709552490362378</v>
+        <v>1.3490030642588711</v>
       </c>
       <c r="K12">
-        <v>0.89390834793474994</v>
+        <v>0.78629950855504782</v>
       </c>
       <c r="L12">
-        <v>0.34308375697591831</v>
+        <v>-0.54623731357735639</v>
       </c>
       <c r="M12">
-        <v>0.88798022880829941</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>95.135471862896665</v>
+        <v>74.006655708582727</v>
       </c>
       <c r="E13">
-        <v>0.49282516067887078</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F13">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G13">
-        <v>0.35092444910146592</v>
+        <v>0.97500306028831762</v>
       </c>
       <c r="H13">
-        <v>-0.49759666196307178</v>
+        <v>0.18764971145176609</v>
       </c>
       <c r="I13">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J13">
-        <v>2.232471296456275</v>
+        <v>0.92342819182405389</v>
       </c>
       <c r="K13">
-        <v>0.80486902037319741</v>
+        <v>7.8071687848754387E-2</v>
       </c>
       <c r="L13">
-        <v>1.155112793268946</v>
+        <v>1.467896251437335E-2</v>
       </c>
       <c r="M13">
-        <v>0.64755905116274692</v>
+        <v>-0.33778952761502368</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>94.27109324283127</v>
+        <v>65.768971664762773</v>
       </c>
       <c r="E14">
-        <v>2.1322231441616442</v>
+        <v>1.722373648290952</v>
       </c>
       <c r="F14">
-        <v>-0.70367002324419003</v>
+        <v>0.1406334910309005</v>
       </c>
       <c r="G14">
-        <v>-0.2138841263860761</v>
+        <v>-0.41609954230136897</v>
       </c>
       <c r="H14">
-        <v>4.0072217558615883E-2</v>
+        <v>-0.34849616156610519</v>
       </c>
       <c r="I14">
-        <v>-0.32365417013734282</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J14">
-        <v>0.35292824769995818</v>
+        <v>0.74398553188793759</v>
       </c>
       <c r="K14">
-        <v>1.09318580758316</v>
+        <v>0.62261765755024001</v>
       </c>
       <c r="L14">
-        <v>1.260596574477761</v>
+        <v>-0.1024631445966315</v>
       </c>
       <c r="M14">
-        <v>2.1494720421201858</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>93.839109300626561</v>
+        <v>57.928136969694251</v>
       </c>
       <c r="E15">
         <v>1.722373648290952</v>
       </c>
       <c r="F15">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G15">
-        <v>-4.695765094394168E-3</v>
+        <v>-0.17204645412773981</v>
       </c>
       <c r="H15">
-        <v>1.262959577373874</v>
+        <v>-1.671804344459136E-3</v>
       </c>
       <c r="I15">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J15">
-        <v>0.65238703126365527</v>
+        <v>1.685768827650336</v>
       </c>
       <c r="K15">
-        <v>1.073221256216301</v>
+        <v>-6.8986072885278235E-2</v>
       </c>
       <c r="L15">
-        <v>1.0730962729346609</v>
+        <v>-1.2876005588087001</v>
       </c>
       <c r="M15">
-        <v>1.714344881443348</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>93.798320221752803</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>1.312524152420258</v>
@@ -2153,473 +2153,473 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G16">
-        <v>-0.75002847142515494</v>
+        <v>1.17791577074125</v>
       </c>
       <c r="H16">
-        <v>-0.20391615651499281</v>
+        <v>-0.19616692442743661</v>
       </c>
       <c r="I16">
-        <v>4.8670195584658869</v>
+        <v>0.67547660576506308</v>
       </c>
       <c r="J16">
-        <v>-0.49030034611057899</v>
+        <v>2.0865648264610308</v>
       </c>
       <c r="K16">
         <v>1.0989583052612151</v>
       </c>
       <c r="L16">
-        <v>1.082470783410308</v>
+        <v>1.5769733794837699</v>
       </c>
       <c r="M16">
-        <v>-0.46250204773865439</v>
+        <v>1.806227572046093</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>93.732051192529283</v>
+        <v>97.276067580350869</v>
       </c>
       <c r="E17">
-        <v>-0.73672332693320985</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F17">
-        <v>-0.29431074359566128</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G17">
-        <v>-0.38378252047159328</v>
+        <v>1.6077978531956569</v>
       </c>
       <c r="H17">
-        <v>1.1490540915757519</v>
+        <v>-0.1383589588278539</v>
       </c>
       <c r="I17">
-        <v>2.8450551773804951</v>
+        <v>-0.2918511105172219</v>
       </c>
       <c r="J17">
-        <v>0.38018079314453418</v>
+        <v>1.9605152303259969</v>
       </c>
       <c r="K17">
         <v>1.0989583052612151</v>
       </c>
       <c r="L17">
-        <v>1.2273663810762321</v>
+        <v>0.63045009234505889</v>
       </c>
       <c r="M17">
-        <v>1.204801887331018</v>
+        <v>0.56283695583315252</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>93.360782990559755</v>
+        <v>96.983746012336411</v>
       </c>
       <c r="E18">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F18">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G18">
-        <v>-5.350638272911986E-2</v>
+        <v>1.3306232744841771</v>
       </c>
       <c r="H18">
-        <v>-0.1157979047712098</v>
+        <v>0.64508051671474276</v>
       </c>
       <c r="I18">
-        <v>0.48449539181789231</v>
+        <v>0.5665123534449592</v>
       </c>
       <c r="J18">
-        <v>2.8220971146606981E-2</v>
+        <v>0.86292137927205548</v>
       </c>
       <c r="K18">
         <v>1.0989583052612151</v>
       </c>
       <c r="L18">
-        <v>1.488007168409762</v>
+        <v>1.0406540805396991</v>
       </c>
       <c r="M18">
-        <v>2.4914244476863669</v>
+        <v>1.0481154378153501</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>91.6514806581838</v>
+        <v>93.798320221752803</v>
       </c>
       <c r="E19">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F19">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G19">
-        <v>-0.98090811778891118</v>
+        <v>-0.75002847142515494</v>
       </c>
       <c r="H19">
-        <v>-0.4749908595114874</v>
+        <v>-0.20391615651499281</v>
       </c>
       <c r="I19">
-        <v>0.73054627669909311</v>
+        <v>4.8670195584658869</v>
       </c>
       <c r="J19">
-        <v>1.8190160406884139</v>
+        <v>-0.49030034611057899</v>
       </c>
       <c r="K19">
-        <v>0.87203610690048639</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L19">
-        <v>0.49900452624112729</v>
+        <v>1.082470783410308</v>
       </c>
       <c r="M19">
-        <v>0.50974217953065715</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>91.625933378027156</v>
+        <v>91.483881979517605</v>
       </c>
       <c r="E20">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F20">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G20">
-        <v>0.1696278693153413</v>
+        <v>1.077854004590062</v>
       </c>
       <c r="H20">
-        <v>0.60747342813575167</v>
+        <v>0.55475688523581412</v>
       </c>
       <c r="I20">
-        <v>2.626495535374318E-2</v>
+        <v>-0.32365417013734282</v>
       </c>
       <c r="J20">
-        <v>0.32310871065010749</v>
+        <v>0.27449464269839219</v>
       </c>
       <c r="K20">
-        <v>0.93335865836910081</v>
+        <v>0.92388223246578882</v>
       </c>
       <c r="L20">
-        <v>1.1046081810263191</v>
+        <v>1.0459018522901209</v>
       </c>
       <c r="M20">
-        <v>2.1277786516543</v>
+        <v>1.4726250976859181</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>91.483881979517605</v>
+        <v>75.721400436102911</v>
       </c>
       <c r="E21">
         <v>1.312524152420258</v>
       </c>
       <c r="F21">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G21">
-        <v>1.077854004590062</v>
+        <v>-0.46491015993609469</v>
       </c>
       <c r="H21">
-        <v>0.55475688523581412</v>
+        <v>0.1196514709361987</v>
       </c>
       <c r="I21">
-        <v>-0.32365417013734282</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J21">
-        <v>0.27449464269839219</v>
+        <v>1.052562067474031</v>
       </c>
       <c r="K21">
-        <v>0.92388223246578882</v>
+        <v>0.9773631156952175</v>
       </c>
       <c r="L21">
-        <v>1.0459018522901209</v>
+        <v>-8.1220677500245003E-2</v>
       </c>
       <c r="M21">
-        <v>1.4726250976859181</v>
+        <v>-0.16557749836757071</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>89.764270486196054</v>
+        <v>73.816087590978981</v>
       </c>
       <c r="E22">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F22">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G22">
-        <v>1.2736598346579661E-2</v>
+        <v>1.2434614572793099</v>
       </c>
       <c r="H22">
-        <v>-0.2853852847165525</v>
+        <v>-0.46323628716450721</v>
       </c>
       <c r="I22">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J22">
-        <v>1.4978915715984731</v>
+        <v>-0.27310814988400089</v>
       </c>
       <c r="K22">
-        <v>0.8369086526886812</v>
+        <v>6.6928406149596206E-2</v>
       </c>
       <c r="L22">
-        <v>0.70335432504381812</v>
+        <v>1.3047433887998241</v>
       </c>
       <c r="M22">
-        <v>0.84885527470206867</v>
+        <v>0.39999184589149872</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>87.570171994037821</v>
+        <v>46.036198943086937</v>
       </c>
       <c r="E23">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F23">
-        <v>2.5712042139440401</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G23">
-        <v>-1.5736084747820109</v>
+        <v>0.37010004888653719</v>
       </c>
       <c r="H23">
-        <v>0.73878714774616272</v>
+        <v>3.9356427687290898</v>
       </c>
       <c r="I23">
-        <v>-0.32365417013734282</v>
+        <v>-0.37636419247916458</v>
       </c>
       <c r="J23">
-        <v>0.62782280594809015</v>
+        <v>-5.9648841251593761E-2</v>
       </c>
       <c r="K23">
-        <v>1.0989583052612151</v>
+        <v>-0.15086093805190681</v>
       </c>
       <c r="L23">
-        <v>1.281430601571462</v>
+        <v>-0.61841683053925989</v>
       </c>
       <c r="M23">
-        <v>1.236233789852311</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>311</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>87.021264189347463</v>
+        <v>44.230124258519787</v>
       </c>
       <c r="E24">
-        <v>0.49282516067887078</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F24">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G24">
-        <v>-0.15984379971905799</v>
+        <v>8.246605211047385E-2</v>
       </c>
       <c r="H24">
-        <v>-0.46038291191663472</v>
+        <v>-0.2496991621556866</v>
       </c>
       <c r="I24">
-        <v>-0.37961305381766097</v>
+        <v>0.73683437729961798</v>
       </c>
       <c r="J24">
-        <v>1.086928340797721</v>
+        <v>-0.30170939756997339</v>
       </c>
       <c r="K24">
-        <v>1.0989583052612151</v>
+        <v>0.29520125224731603</v>
       </c>
       <c r="L24">
-        <v>0.98195364872698199</v>
+        <v>-0.59134722161478059</v>
       </c>
       <c r="M24">
-        <v>0.56964404223544962</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>306</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25">
-        <v>84.969752735426141</v>
+        <v>42.781868785693007</v>
       </c>
       <c r="E25">
-        <v>8.2975664808177252E-2</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F25">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G25">
-        <v>0.122560488024713</v>
+        <v>-0.42220086950570962</v>
       </c>
       <c r="H25">
-        <v>1.4975105571814551</v>
+        <v>0.63303808673125728</v>
       </c>
       <c r="I25">
-        <v>0.14483217471038479</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J25">
-        <v>0.42753572269361589</v>
+        <v>4.8075721250282658E-2</v>
       </c>
       <c r="K25">
-        <v>0.89798535726444617</v>
+        <v>-3.6120290817971093E-2</v>
       </c>
       <c r="L25">
-        <v>0.83879033827241622</v>
+        <v>-0.38528675595312051</v>
       </c>
       <c r="M25">
-        <v>1.2423504978879221</v>
+        <v>6.8403741020193906E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>84.493758524034902</v>
+        <v>41.805369165421048</v>
       </c>
       <c r="E26">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F26">
-        <v>-0.70367002324419003</v>
+        <v>-0.19197092368352911</v>
       </c>
       <c r="G26">
-        <v>-0.76870108476844545</v>
+        <v>-1.4202036765014441</v>
       </c>
       <c r="H26">
-        <v>1.0419663815241109</v>
+        <v>-0.28906276270336889</v>
       </c>
       <c r="I26">
-        <v>-0.35412331371358868</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J26">
-        <v>0.40444673241454571</v>
+        <v>-0.50841464890093213</v>
       </c>
       <c r="K26">
-        <v>0.91514678180144815</v>
+        <v>0.89823177056204873</v>
       </c>
       <c r="L26">
-        <v>1.2072446168269291</v>
+        <v>0.43135289042807562</v>
       </c>
       <c r="M26">
-        <v>1.0806382340270491</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27">
-        <v>83.890735183050253</v>
+        <v>36.641530957777462</v>
       </c>
       <c r="E27">
-        <v>0.90267465654956414</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F27">
-        <v>-0.70367002324419003</v>
+        <v>1.7524856546469829</v>
       </c>
       <c r="G27">
-        <v>-5.350638272911986E-2</v>
+        <v>5.7636529701903553E-3</v>
       </c>
       <c r="H27">
-        <v>-0.23082082676210761</v>
+        <v>-0.38798546327386862</v>
       </c>
       <c r="I27">
-        <v>0.48449539181789231</v>
+        <v>-0.16065478293238139</v>
       </c>
       <c r="J27">
-        <v>1.559663667259565</v>
+        <v>-2.0335087631580619E-2</v>
       </c>
       <c r="K27">
-        <v>0.55032235475965408</v>
+        <v>-0.1664040273578665</v>
       </c>
       <c r="L27">
-        <v>0.18904812274462451</v>
+        <v>-0.50154954977634514</v>
       </c>
       <c r="M27">
         <v>-0.46250204773865439</v>
@@ -2627,81 +2627,81 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>83.455880974109419</v>
+        <v>21.305380640889538</v>
       </c>
       <c r="E28">
-        <v>0.49282516067887078</v>
+        <v>1.312524152420258</v>
       </c>
       <c r="F28">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G28">
-        <v>2.9884410377207611</v>
+        <v>0.82857120738414058</v>
       </c>
       <c r="H28">
-        <v>0.22288880186994531</v>
+        <v>-0.39869003179076828</v>
       </c>
       <c r="I28">
-        <v>-0.45639298027932579</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J28">
-        <v>6.9879586777463823E-2</v>
+        <v>-0.41085639381102879</v>
       </c>
       <c r="K28">
-        <v>0.71937447934551779</v>
+        <v>-0.65079060083074591</v>
       </c>
       <c r="L28">
-        <v>0.64037356839583637</v>
+        <v>-0.73641970624377284</v>
       </c>
       <c r="M28">
-        <v>0.30020305221697102</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>81.133739715985826</v>
+        <v>95.497495749071192</v>
       </c>
       <c r="E29">
         <v>0.90267465654956414</v>
       </c>
       <c r="F29">
-        <v>-0.70367002324419003</v>
+        <v>5.0273598918352116</v>
       </c>
       <c r="G29">
-        <v>0.86866564329837981</v>
+        <v>0.1696278693153413</v>
       </c>
       <c r="H29">
-        <v>-0.33326061577886479</v>
+        <v>-0.13785009585741301</v>
       </c>
       <c r="I29">
-        <v>1.2796556929747169</v>
+        <v>-0.1128140807700556</v>
       </c>
       <c r="J29">
-        <v>0.60480879867736159</v>
+        <v>2.4187586501270988</v>
       </c>
       <c r="K29">
-        <v>0.82681800301006481</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L29">
-        <v>-0.1193521711948179</v>
+        <v>0.43434664846889082</v>
       </c>
       <c r="M29">
         <v>-0.46250204773865439</v>
@@ -2709,368 +2709,368 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>80.838602278319328</v>
+        <v>93.360782990559755</v>
       </c>
       <c r="E30">
-        <v>1.722373648290952</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F30">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G30">
-        <v>1.1632725854508319</v>
+        <v>-5.350638272911986E-2</v>
       </c>
       <c r="H30">
-        <v>-3.7599601637510409E-2</v>
+        <v>-0.1157979047712098</v>
       </c>
       <c r="I30">
-        <v>-0.53449425950463025</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J30">
-        <v>0.49501911107995339</v>
+        <v>2.8220971146606981E-2</v>
       </c>
       <c r="K30">
-        <v>0.32868404045797162</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L30">
-        <v>0.54198827141309514</v>
+        <v>1.488007168409762</v>
       </c>
       <c r="M30">
-        <v>0.16313652442996199</v>
+        <v>2.4914244476863669</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>80.738609382154706</v>
+        <v>91.6514806581838</v>
       </c>
       <c r="E31">
-        <v>2.1322231441616442</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F31">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G31">
-        <v>1.1214349131924961</v>
+        <v>-0.98090811778891118</v>
       </c>
       <c r="H31">
-        <v>0.19666066476607211</v>
+        <v>-0.4749908595114874</v>
       </c>
       <c r="I31">
-        <v>-0.53449425950463025</v>
+        <v>0.73054627669909311</v>
       </c>
       <c r="J31">
-        <v>1.102458500101607</v>
+        <v>1.8190160406884139</v>
       </c>
       <c r="K31">
-        <v>0.17201049671092161</v>
+        <v>0.87203610690048639</v>
       </c>
       <c r="L31">
-        <v>-1.3242032617482819E-2</v>
+        <v>0.49900452624112729</v>
       </c>
       <c r="M31">
-        <v>-0.40702986721804241</v>
+        <v>0.50974217953065715</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>80.492958550390995</v>
+        <v>91.625933378027156</v>
       </c>
       <c r="E32">
-        <v>-0.73672332693320985</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F32">
-        <v>2.3665245741197758</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G32">
-        <v>-0.17553292681593441</v>
+        <v>0.1696278693153413</v>
       </c>
       <c r="H32">
-        <v>0.81025313858750769</v>
+        <v>0.60747342813575167</v>
       </c>
       <c r="I32">
-        <v>-0.53449425950463025</v>
+        <v>2.626495535374318E-2</v>
       </c>
       <c r="J32">
-        <v>1.358522408720507</v>
+        <v>0.32310871065010749</v>
       </c>
       <c r="K32">
-        <v>1.0989583052612151</v>
+        <v>0.93335865836910081</v>
       </c>
       <c r="L32">
-        <v>0.6962674907070775</v>
+        <v>1.1046081810263191</v>
       </c>
       <c r="M32">
-        <v>-9.8166613126110663E-2</v>
+        <v>2.1277786516543</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>79.393300662267151</v>
+        <v>89.764270486196054</v>
       </c>
       <c r="E33">
-        <v>1.722373648290952</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F33">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G33">
-        <v>-0.40389688789268757</v>
+        <v>1.2736598346579661E-2</v>
       </c>
       <c r="H33">
-        <v>0.75865889562359667</v>
+        <v>-0.2853852847165525</v>
       </c>
       <c r="I33">
-        <v>0.14483217471038479</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J33">
-        <v>1.3490030642588711</v>
+        <v>1.4978915715984731</v>
       </c>
       <c r="K33">
-        <v>0.78629950855504782</v>
+        <v>0.8369086526886812</v>
       </c>
       <c r="L33">
-        <v>-0.54623731357735639</v>
+        <v>0.70335432504381812</v>
       </c>
       <c r="M33">
-        <v>-0.46250204773865439</v>
+        <v>0.84885527470206867</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>77.830132055278114</v>
+        <v>87.570171994037821</v>
       </c>
       <c r="E34">
         <v>0.90267465654956414</v>
       </c>
       <c r="F34">
-        <v>-0.49899038341992569</v>
+        <v>2.5712042139440401</v>
       </c>
       <c r="G34">
-        <v>0.6566183744023778</v>
+        <v>-1.5736084747820109</v>
       </c>
       <c r="H34">
-        <v>-0.20365154418901321</v>
+        <v>0.73878714774616272</v>
       </c>
       <c r="I34">
-        <v>1.530658100509015</v>
+        <v>-0.32365417013734282</v>
       </c>
       <c r="J34">
-        <v>0.17696643282658181</v>
+        <v>0.62782280594809015</v>
       </c>
       <c r="K34">
-        <v>0.74011013745136323</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L34">
-        <v>0.1078678073740168</v>
+        <v>1.281430601571462</v>
       </c>
       <c r="M34">
-        <v>-0.46250204773865439</v>
+        <v>1.236233789852311</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>75.721400436102911</v>
+        <v>84.493758524034902</v>
       </c>
       <c r="E35">
-        <v>1.312524152420258</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F35">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G35">
-        <v>-0.46491015993609469</v>
+        <v>-0.76870108476844545</v>
       </c>
       <c r="H35">
-        <v>0.1196514709361987</v>
+        <v>1.0419663815241109</v>
       </c>
       <c r="I35">
-        <v>-0.53449425950463025</v>
+        <v>-0.35412331371358868</v>
       </c>
       <c r="J35">
-        <v>1.052562067474031</v>
+        <v>0.40444673241454571</v>
       </c>
       <c r="K35">
-        <v>0.9773631156952175</v>
+        <v>0.91514678180144815</v>
       </c>
       <c r="L35">
-        <v>-8.1220677500245003E-2</v>
+        <v>1.2072446168269291</v>
       </c>
       <c r="M35">
-        <v>-0.16557749836757071</v>
+        <v>1.0806382340270491</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>74.006655708582727</v>
+        <v>83.890735183050253</v>
       </c>
       <c r="E36">
-        <v>1.722373648290952</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F36">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G36">
-        <v>0.97500306028831762</v>
+        <v>-5.350638272911986E-2</v>
       </c>
       <c r="H36">
-        <v>0.18764971145176609</v>
+        <v>-0.23082082676210761</v>
       </c>
       <c r="I36">
-        <v>-0.53449425950463025</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J36">
-        <v>0.92342819182405389</v>
+        <v>1.559663667259565</v>
       </c>
       <c r="K36">
-        <v>7.8071687848754387E-2</v>
+        <v>0.55032235475965408</v>
       </c>
       <c r="L36">
-        <v>1.467896251437335E-2</v>
+        <v>0.18904812274462451</v>
       </c>
       <c r="M36">
-        <v>-0.33778952761502368</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37">
-        <v>73.816087590978981</v>
+        <v>81.133739715985826</v>
       </c>
       <c r="E37">
-        <v>1.312524152420258</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F37">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G37">
-        <v>1.2434614572793099</v>
+        <v>0.86866564329837981</v>
       </c>
       <c r="H37">
-        <v>-0.46323628716450721</v>
+        <v>-0.33326061577886479</v>
       </c>
       <c r="I37">
-        <v>-0.53449425950463025</v>
+        <v>1.2796556929747169</v>
       </c>
       <c r="J37">
-        <v>-0.27310814988400089</v>
+        <v>0.60480879867736159</v>
       </c>
       <c r="K37">
-        <v>6.6928406149596206E-2</v>
+        <v>0.82681800301006481</v>
       </c>
       <c r="L37">
-        <v>1.3047433887998241</v>
+        <v>-0.1193521711948179</v>
       </c>
       <c r="M37">
-        <v>0.39999184589149872</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>73.384746223281226</v>
+        <v>77.830132055278114</v>
       </c>
       <c r="E38">
-        <v>-0.73672332693320985</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F38">
-        <v>0.11504853605286749</v>
+        <v>-0.49899038341992569</v>
       </c>
       <c r="G38">
-        <v>0.39973506673619169</v>
+        <v>0.6566183744023778</v>
       </c>
       <c r="H38">
-        <v>0.4632861774379996</v>
+        <v>-0.20365154418901321</v>
       </c>
       <c r="I38">
-        <v>1.4398157710428129E-2</v>
+        <v>1.530658100509015</v>
       </c>
       <c r="J38">
-        <v>1.4621597359298839</v>
+        <v>0.17696643282658181</v>
       </c>
       <c r="K38">
-        <v>1.0777362513493229</v>
+        <v>0.74011013745136323</v>
       </c>
       <c r="L38">
-        <v>-0.26632482392211171</v>
+        <v>0.1078678073740168</v>
       </c>
       <c r="M38">
         <v>-0.46250204773865439</v>
@@ -3078,163 +3078,163 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>70.288720451260275</v>
+        <v>53.465107028179617</v>
       </c>
       <c r="E39">
-        <v>-1.1465728228039029</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F39">
-        <v>-8.9631103771396867E-2</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G39">
-        <v>-1.382941999646363</v>
+        <v>-0.36380245197844863</v>
       </c>
       <c r="H39">
-        <v>-0.13828149802826331</v>
+        <v>-0.43275740599062062</v>
       </c>
       <c r="I39">
-        <v>0.73924280464852277</v>
+        <v>-4.043801744745168E-2</v>
       </c>
       <c r="J39">
-        <v>-0.85773431766624741</v>
+        <v>-0.68936717665562142</v>
       </c>
       <c r="K39">
-        <v>1.0989583052612151</v>
+        <v>0.56895589069391517</v>
       </c>
       <c r="L39">
-        <v>1.530996859026746</v>
+        <v>0.67012361701920697</v>
       </c>
       <c r="M39">
-        <v>2.8719048200822019</v>
+        <v>0.43276522868616818</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>69.97265432133706</v>
+        <v>47.68557948926852</v>
       </c>
       <c r="E40">
-        <v>0.49282516067887078</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F40">
-        <v>0.11504853605286749</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G40">
-        <v>-0.10928994574023521</v>
+        <v>-1.3016636051028241</v>
       </c>
       <c r="H40">
-        <v>0.57203672131866279</v>
+        <v>-0.28941126452164728</v>
       </c>
       <c r="I40">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J40">
-        <v>1.779377689409619E-2</v>
+        <v>0.3840975714875266</v>
       </c>
       <c r="K40">
-        <v>1.070145588893793</v>
+        <v>7.0726433173309761E-2</v>
       </c>
       <c r="L40">
-        <v>0.38243340052372432</v>
+        <v>0.59442076553816736</v>
       </c>
       <c r="M40">
-        <v>0.96891830567331083</v>
+        <v>-0.3710157955335473</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>69.695946210660765</v>
+        <v>41.413291927255933</v>
       </c>
       <c r="E41">
-        <v>8.2975664808177252E-2</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F41">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G41">
-        <v>1.6269734529807269</v>
+        <v>-0.60436906746388286</v>
       </c>
       <c r="H41">
-        <v>7.060659327112058E-2</v>
+        <v>-0.50928595622241302</v>
       </c>
       <c r="I41">
         <v>0.14483217471038479</v>
       </c>
       <c r="J41">
-        <v>0.85817884103562303</v>
+        <v>-0.17260558250430061</v>
       </c>
       <c r="K41">
-        <v>0.44607977223916478</v>
+        <v>0.43946882323684228</v>
       </c>
       <c r="L41">
-        <v>-0.42108199903379739</v>
+        <v>-5.7835815330123691E-2</v>
       </c>
       <c r="M41">
-        <v>-9.9879119568757932E-2</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42">
-        <v>69.343954114066662</v>
+        <v>40.648338124643132</v>
       </c>
       <c r="E42">
-        <v>0.49282516067887078</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F42">
-        <v>-0.70367002324419003</v>
+        <v>0.31972817587713198</v>
       </c>
       <c r="G42">
-        <v>0.1173307789924206</v>
+        <v>-4.695765094394168E-3</v>
       </c>
       <c r="H42">
-        <v>-4.9265220703917116E-3</v>
+        <v>-0.37438520623558241</v>
       </c>
       <c r="I42">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J42">
-        <v>2.1414115891186669</v>
+        <v>0.41622644972335798</v>
       </c>
       <c r="K42">
-        <v>0.65754937467036656</v>
+        <v>0.12317440101588339</v>
       </c>
       <c r="L42">
-        <v>-1.1433423305494159</v>
+        <v>-0.49132338368781342</v>
       </c>
       <c r="M42">
         <v>-0.46250204773865439</v>
@@ -3242,40 +3242,40 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>65.768971664762773</v>
+        <v>18.717544998339211</v>
       </c>
       <c r="E43">
-        <v>1.722373648290952</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F43">
-        <v>0.1406334910309005</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G43">
-        <v>-0.41609954230136897</v>
+        <v>-0.95040148176720751</v>
       </c>
       <c r="H43">
-        <v>-0.34849616156610519</v>
+        <v>-0.49656103361469422</v>
       </c>
       <c r="I43">
-        <v>-0.53449425950463025</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J43">
-        <v>0.74398553188793759</v>
+        <v>0.24943648684472111</v>
       </c>
       <c r="K43">
-        <v>0.62261765755024001</v>
+        <v>-0.28097710812521881</v>
       </c>
       <c r="L43">
-        <v>-0.1024631445966315</v>
+        <v>-1.233019913992967</v>
       </c>
       <c r="M43">
         <v>-0.46250204773865439</v>
@@ -3283,40 +3283,40 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>65.110021013943424</v>
+        <v>5.0991476557548987</v>
       </c>
       <c r="E44">
-        <v>0.49282516067887078</v>
+        <v>0.90267465654956414</v>
       </c>
       <c r="F44">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G44">
-        <v>0.38927564867160769</v>
+        <v>-0.74034150230347662</v>
       </c>
       <c r="H44">
-        <v>-0.48376528495500087</v>
+        <v>-0.58293949659888644</v>
       </c>
       <c r="I44">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J44">
-        <v>0.63595016027555462</v>
+        <v>-0.7213994693676159</v>
       </c>
       <c r="K44">
-        <v>0.36299693915063502</v>
+        <v>-1.444112533977165</v>
       </c>
       <c r="L44">
-        <v>0.69127448881003417</v>
+        <v>-1.114058776713255</v>
       </c>
       <c r="M44">
         <v>-0.46250204773865439</v>
@@ -3324,139 +3324,139 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>63.993680065841772</v>
+        <v>97.565143537229858</v>
       </c>
       <c r="E45">
-        <v>-0.73672332693320985</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F45">
-        <v>-0.24314083363959521</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G45">
-        <v>0.98023276932061032</v>
+        <v>0.95059775147095482</v>
       </c>
       <c r="H45">
-        <v>-0.44897319307881062</v>
+        <v>-0.49379344171607747</v>
       </c>
       <c r="I45">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J45">
-        <v>0.47044871310444808</v>
+        <v>2.5446170525816059</v>
       </c>
       <c r="K45">
-        <v>0.53131069963230027</v>
+        <v>0.98321859642934817</v>
       </c>
       <c r="L45">
-        <v>0.4576768979606452</v>
+        <v>1.1902220577499341</v>
       </c>
       <c r="M45">
-        <v>0.80691392125085493</v>
+        <v>0.59560647321871341</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>63.650055888621949</v>
+        <v>95.135471862896665</v>
       </c>
       <c r="E46">
-        <v>-0.73672332693320985</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F46">
-        <v>-0.29431074359566128</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G46">
-        <v>0.48864012028515691</v>
+        <v>0.35092444910146592</v>
       </c>
       <c r="H46">
-        <v>-3.2720704188583687E-2</v>
+        <v>-0.49759666196307178</v>
       </c>
       <c r="I46">
-        <v>1.4398157710428129E-2</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J46">
-        <v>0.84806235492463622</v>
+        <v>2.232471296456275</v>
       </c>
       <c r="K46">
-        <v>1.0989583052612151</v>
+        <v>0.80486902037319741</v>
       </c>
       <c r="L46">
-        <v>-0.142322055404279</v>
+        <v>1.155112793268946</v>
       </c>
       <c r="M46">
-        <v>-0.46250204773865439</v>
+        <v>0.64755905116274692</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
       </c>
       <c r="D47">
-        <v>63.378871138567128</v>
+        <v>87.021264189347463</v>
       </c>
       <c r="E47">
         <v>0.49282516067887078</v>
       </c>
       <c r="F47">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G47">
-        <v>1.6775273069595511</v>
+        <v>-0.15984379971905799</v>
       </c>
       <c r="H47">
-        <v>0.87148150960162074</v>
+        <v>-0.46038291191663472</v>
       </c>
       <c r="I47">
-        <v>-0.22571000683249909</v>
+        <v>-0.37961305381766097</v>
       </c>
       <c r="J47">
-        <v>0.37615489191240692</v>
+        <v>1.086928340797721</v>
       </c>
       <c r="K47">
-        <v>0.64804513246022177</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L47">
-        <v>-0.55311200366218538</v>
+        <v>0.98195364872698199</v>
       </c>
       <c r="M47">
-        <v>-0.46250204773865439</v>
+        <v>0.56964404223544962</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>61.749483191030059</v>
+        <v>83.455880974109419</v>
       </c>
       <c r="E48">
         <v>0.49282516067887078</v>
@@ -3465,80 +3465,80 @@
         <v>0.11504853605286749</v>
       </c>
       <c r="G48">
-        <v>0.93316538802998117</v>
+        <v>2.9884410377207611</v>
       </c>
       <c r="H48">
-        <v>-6.521445674848389E-2</v>
+        <v>0.22288880186994531</v>
       </c>
       <c r="I48">
-        <v>8.6812186529031873E-2</v>
+        <v>-0.45639298027932579</v>
       </c>
       <c r="J48">
-        <v>0.39893434293350882</v>
+        <v>6.9879586777463823E-2</v>
       </c>
       <c r="K48">
-        <v>0.43840396777754559</v>
+        <v>0.71937447934551779</v>
       </c>
       <c r="L48">
-        <v>-0.21739809753195991</v>
+        <v>0.64037356839583637</v>
       </c>
       <c r="M48">
-        <v>-0.2300651184829357</v>
+        <v>0.30020305221697102</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>60.46324841531662</v>
+        <v>69.97265432133706</v>
       </c>
       <c r="E49">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F49">
-        <v>0.52440781570139627</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G49">
-        <v>-8.9242727783115539E-2</v>
+        <v>-0.10928994574023521</v>
       </c>
       <c r="H49">
-        <v>0.35218641483588881</v>
+        <v>0.57203672131866279</v>
       </c>
       <c r="I49">
-        <v>0.48449539181789231</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J49">
-        <v>-0.73776295345598808</v>
+        <v>1.779377689409619E-2</v>
       </c>
       <c r="K49">
-        <v>0.76904140755801953</v>
+        <v>1.070145588893793</v>
       </c>
       <c r="L49">
-        <v>1.16757293066279</v>
+        <v>0.38243340052372432</v>
       </c>
       <c r="M49">
-        <v>1.3802103732273729</v>
+        <v>0.96891830567331083</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>59.461048129272292</v>
+        <v>69.343954114066662</v>
       </c>
       <c r="E50">
         <v>0.49282516067887078</v>
@@ -3547,80 +3547,80 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G50">
-        <v>0.44157273899452842</v>
+        <v>0.1173307789924206</v>
       </c>
       <c r="H50">
-        <v>-0.44818241276597248</v>
+        <v>-4.9265220703917116E-3</v>
       </c>
       <c r="I50">
-        <v>-0.37636419247916458</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J50">
-        <v>1.981057939728279</v>
+        <v>2.1414115891186669</v>
       </c>
       <c r="K50">
-        <v>-0.6959577188415863</v>
+        <v>0.65754937467036656</v>
       </c>
       <c r="L50">
-        <v>-0.46921907731233842</v>
+        <v>-1.1433423305494159</v>
       </c>
       <c r="M50">
-        <v>-0.39258686339889909</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>59.430706298721809</v>
+        <v>65.110021013943424</v>
       </c>
       <c r="E51">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F51">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G51">
-        <v>0.89655742480393708</v>
+        <v>0.38927564867160769</v>
       </c>
       <c r="H51">
-        <v>-0.24977267502747119</v>
+        <v>-0.48376528495500087</v>
       </c>
       <c r="I51">
-        <v>-1.8223573881399949E-2</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J51">
-        <v>-0.2768077229687162</v>
+        <v>0.63595016027555462</v>
       </c>
       <c r="K51">
-        <v>0.75560887035202839</v>
+        <v>0.36299693915063502</v>
       </c>
       <c r="L51">
-        <v>0.85480248054468977</v>
+        <v>0.69127448881003417</v>
       </c>
       <c r="M51">
-        <v>0.6668546185879205</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>59.303976627639052</v>
+        <v>63.378871138567128</v>
       </c>
       <c r="E52">
         <v>0.49282516067887078</v>
@@ -3629,285 +3629,285 @@
         <v>0.52440781570139627</v>
       </c>
       <c r="G52">
-        <v>0.17834405103582801</v>
+        <v>1.6775273069595511</v>
       </c>
       <c r="H52">
-        <v>0.2884840180490677</v>
+        <v>0.87148150960162074</v>
       </c>
       <c r="I52">
-        <v>0.82415860892539972</v>
+        <v>-0.22571000683249909</v>
       </c>
       <c r="J52">
-        <v>-0.33384930397003071</v>
+        <v>0.37615489191240692</v>
       </c>
       <c r="K52">
-        <v>0.4287410935225926</v>
+        <v>0.64804513246022177</v>
       </c>
       <c r="L52">
-        <v>0.12970015894678269</v>
+        <v>-0.55311200366218538</v>
       </c>
       <c r="M52">
-        <v>0.26013276127133511</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
       </c>
       <c r="D53">
-        <v>58.715966990944608</v>
+        <v>61.749483191030059</v>
       </c>
       <c r="E53">
-        <v>-0.73672332693320985</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F53">
-        <v>0.2173883559649997</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G53">
-        <v>1.2736598346579661E-2</v>
+        <v>0.93316538802998117</v>
       </c>
       <c r="H53">
-        <v>0.71633812057206403</v>
+        <v>-6.521445674848389E-2</v>
       </c>
       <c r="I53">
-        <v>-0.53449425950463025</v>
+        <v>8.6812186529031873E-2</v>
       </c>
       <c r="J53">
-        <v>1.004204014739811</v>
+        <v>0.39893434293350882</v>
       </c>
       <c r="K53">
-        <v>0.80376885460292302</v>
+        <v>0.43840396777754559</v>
       </c>
       <c r="L53">
-        <v>4.5241610102992207E-2</v>
+        <v>-0.21739809753195991</v>
       </c>
       <c r="M53">
-        <v>-0.46250204773865439</v>
+        <v>-0.2300651184829357</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="D54">
-        <v>57.928136969694251</v>
+        <v>59.461048129272292</v>
       </c>
       <c r="E54">
-        <v>1.722373648290952</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F54">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G54">
-        <v>-0.17204645412773981</v>
+        <v>0.44157273899452842</v>
       </c>
       <c r="H54">
-        <v>-1.671804344459136E-3</v>
+        <v>-0.44818241276597248</v>
       </c>
       <c r="I54">
-        <v>-0.53449425950463025</v>
+        <v>-0.37636419247916458</v>
       </c>
       <c r="J54">
-        <v>1.685768827650336</v>
+        <v>1.981057939728279</v>
       </c>
       <c r="K54">
-        <v>-6.8986072885278235E-2</v>
+        <v>-0.6959577188415863</v>
       </c>
       <c r="L54">
-        <v>-1.2876005588087001</v>
+        <v>-0.46921907731233842</v>
       </c>
       <c r="M54">
-        <v>-0.46250204773865439</v>
+        <v>-0.39258686339889909</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>57.845785126735016</v>
+        <v>59.303976627639052</v>
       </c>
       <c r="E55">
-        <v>8.2975664808177252E-2</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F55">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G55">
-        <v>0.56011281039314831</v>
+        <v>0.17834405103582801</v>
       </c>
       <c r="H55">
-        <v>-0.25846146110023033</v>
+        <v>0.2884840180490677</v>
       </c>
       <c r="I55">
-        <v>-0.53449425950463025</v>
+        <v>0.82415860892539972</v>
       </c>
       <c r="J55">
-        <v>-0.82861074077009567</v>
+        <v>-0.33384930397003071</v>
       </c>
       <c r="K55">
-        <v>0.80333010625602463</v>
+        <v>0.4287410935225926</v>
       </c>
       <c r="L55">
-        <v>0.99400669240190243</v>
+        <v>0.12970015894678269</v>
       </c>
       <c r="M55">
-        <v>1.0208740835789389</v>
+        <v>0.26013276127133511</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>53.465107028179617</v>
+        <v>51.358292891517529</v>
       </c>
       <c r="E56">
-        <v>0.90267465654956414</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F56">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G56">
-        <v>-0.36380245197844863</v>
+        <v>1.4700821820119661</v>
       </c>
       <c r="H56">
-        <v>-0.43275740599062062</v>
+        <v>1.075640753749783E-2</v>
       </c>
       <c r="I56">
-        <v>-4.043801744745168E-2</v>
+        <v>-0.43003170066220048</v>
       </c>
       <c r="J56">
-        <v>-0.68936717665562142</v>
+        <v>-0.33604505077199981</v>
       </c>
       <c r="K56">
-        <v>0.56895589069391517</v>
+        <v>-0.1647727223174838</v>
       </c>
       <c r="L56">
-        <v>0.67012361701920697</v>
+        <v>0.74048756162585738</v>
       </c>
       <c r="M56">
-        <v>0.43276522868616818</v>
+        <v>-0.23323810440786369</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57">
-        <v>52.586905771756292</v>
+        <v>50.702253511304903</v>
       </c>
       <c r="E57">
-        <v>8.2975664808177252E-2</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F57">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G57">
-        <v>0.14961558581455761</v>
+        <v>1.1807049488918051</v>
       </c>
       <c r="H57">
-        <v>-0.34188517778466831</v>
+        <v>0.82015684329856864</v>
       </c>
       <c r="I57">
-        <v>0.97657120871119263</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J57">
-        <v>-0.64781542978111439</v>
+        <v>0.63883555030765116</v>
       </c>
       <c r="K57">
-        <v>0.74800905567230225</v>
+        <v>0.29036628893179661</v>
       </c>
       <c r="L57">
-        <v>0.42393554101667991</v>
+        <v>-0.80114377390505143</v>
       </c>
       <c r="M57">
-        <v>-0.38913902938189271</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>51.557451001286509</v>
+        <v>41.207238058964677</v>
       </c>
       <c r="E58">
-        <v>-0.73672332693320985</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F58">
-        <v>-0.29431074359566128</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G58">
-        <v>6.5033688669500295E-2</v>
+        <v>0.15916845125075729</v>
       </c>
       <c r="H58">
-        <v>-1.549155668282075E-2</v>
+        <v>0.66380098519904385</v>
       </c>
       <c r="I58">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J58">
-        <v>8.9257884002355958E-2</v>
+        <v>-0.27504578544844882</v>
       </c>
       <c r="K58">
-        <v>0.61639515544111767</v>
+        <v>0.29771634301554112</v>
       </c>
       <c r="L58">
-        <v>0.49629169288070418</v>
+        <v>0.11539055622033149</v>
       </c>
       <c r="M58">
-        <v>0.68553638394709993</v>
+        <v>-0.24012860459212709</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>51.358292891517529</v>
+        <v>21.668720163596891</v>
       </c>
       <c r="E59">
         <v>0.49282516067887078</v>
@@ -3916,39 +3916,39 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G59">
-        <v>1.4700821820119661</v>
+        <v>2.400970389759951</v>
       </c>
       <c r="H59">
-        <v>1.075640753749783E-2</v>
+        <v>-0.32460588488041803</v>
       </c>
       <c r="I59">
-        <v>-0.43003170066220048</v>
+        <v>0.14695922614004819</v>
       </c>
       <c r="J59">
-        <v>-0.33604505077199981</v>
+        <v>-0.18444016931334209</v>
       </c>
       <c r="K59">
-        <v>-0.1647727223174838</v>
+        <v>-1.179193269892217</v>
       </c>
       <c r="L59">
-        <v>0.74048756162585738</v>
+        <v>-1.1713501814804861</v>
       </c>
       <c r="M59">
-        <v>-0.23323810440786369</v>
+        <v>-0.46189948278134813</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60">
-        <v>50.702253511304903</v>
+        <v>21.49106200313766</v>
       </c>
       <c r="E60">
         <v>0.49282516067887078</v>
@@ -3957,22 +3957,22 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G60">
-        <v>1.1807049488918051</v>
+        <v>1.009867787170265</v>
       </c>
       <c r="H60">
-        <v>0.82015684329856864</v>
+        <v>0.71476503236479993</v>
       </c>
       <c r="I60">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J60">
-        <v>0.63883555030765116</v>
+        <v>-0.51237494393763772</v>
       </c>
       <c r="K60">
-        <v>0.29036628893179661</v>
+        <v>-0.86806768194408213</v>
       </c>
       <c r="L60">
-        <v>-0.80114377390505143</v>
+        <v>-0.1620922889534874</v>
       </c>
       <c r="M60">
         <v>-0.46250204773865439</v>
@@ -3980,245 +3980,245 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
       </c>
       <c r="D61">
-        <v>50.580729795440163</v>
+        <v>20.957933899057199</v>
       </c>
       <c r="E61">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F61">
-        <v>0.93376709534992508</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G61">
-        <v>-1.015772844670858</v>
+        <v>4.4114852540331803E-2</v>
       </c>
       <c r="H61">
-        <v>-0.5256774292111579</v>
+        <v>0.17504849013765569</v>
       </c>
       <c r="I61">
-        <v>-0.53449425950463025</v>
+        <v>1.163821826032907</v>
       </c>
       <c r="J61">
-        <v>-0.6586653670677628</v>
+        <v>-0.43467156021010439</v>
       </c>
       <c r="K61">
-        <v>0.88140663240976103</v>
+        <v>-0.45339558942761482</v>
       </c>
       <c r="L61">
-        <v>1.349681234072345</v>
+        <v>-1.2524863191104489</v>
       </c>
       <c r="M61">
-        <v>1.828162039647661</v>
+        <v>-0.4621241158196327</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>49.974844186565157</v>
+        <v>19.56700422751814</v>
       </c>
       <c r="E62">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F62">
-        <v>-0.29431074359566128</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G62">
-        <v>-0.73946988413142789</v>
+        <v>0.4611841478656234</v>
       </c>
       <c r="H62">
-        <v>-0.35087992952168562</v>
+        <v>0.77109654306959863</v>
       </c>
       <c r="I62">
-        <v>-0.19483104239712271</v>
+        <v>-0.4572981963365973</v>
       </c>
       <c r="J62">
-        <v>-0.51940461612884703</v>
+        <v>-0.1754830252507531</v>
       </c>
       <c r="K62">
-        <v>1.0989583052612151</v>
+        <v>-0.88066174985150725</v>
       </c>
       <c r="L62">
-        <v>1.0308881761639721</v>
+        <v>-0.53961395230416842</v>
       </c>
       <c r="M62">
-        <v>0.99433014606842163</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>49.660297258199769</v>
+        <v>18.82635498202897</v>
       </c>
       <c r="E63">
-        <v>-0.73672332693320985</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F63">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G63">
-        <v>-0.9460433909069641</v>
+        <v>1.633946398357117</v>
       </c>
       <c r="H63">
-        <v>-1.7668371456005569E-2</v>
+        <v>-0.41344969309023782</v>
       </c>
       <c r="I63">
-        <v>1.4398157710428129E-2</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J63">
-        <v>-0.37764955914185899</v>
+        <v>-8.8482379259480923E-2</v>
       </c>
       <c r="K63">
-        <v>0.27450237346776207</v>
+        <v>-1.139008648146683</v>
       </c>
       <c r="L63">
-        <v>1.247491718541583</v>
+        <v>-0.88307937575211404</v>
       </c>
       <c r="M63">
-        <v>1.1755201733402301</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>47.68557948926852</v>
+        <v>17.37082504912453</v>
       </c>
       <c r="E64">
-        <v>0.90267465654956414</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F64">
-        <v>0.93376709534992508</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G64">
-        <v>-1.3016636051028241</v>
+        <v>0.52524808351120122</v>
       </c>
       <c r="H64">
-        <v>-0.28941126452164728</v>
+        <v>-0.1137051948380576</v>
       </c>
       <c r="I64">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J64">
-        <v>0.3840975714875266</v>
+        <v>-0.31241481385663561</v>
       </c>
       <c r="K64">
-        <v>7.0726433173309761E-2</v>
+        <v>-1.073359320016535</v>
       </c>
       <c r="L64">
-        <v>0.59442076553816736</v>
+        <v>-0.2220052823907637</v>
       </c>
       <c r="M64">
-        <v>-0.3710157955335473</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
       </c>
       <c r="D65">
-        <v>46.623275745791616</v>
+        <v>16.846976279166348</v>
       </c>
       <c r="E65">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F65">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G65">
-        <v>-1.451581930695196</v>
+        <v>1.707162324809206</v>
       </c>
       <c r="H65">
-        <v>-0.38639422214175589</v>
+        <v>-0.51467422600299739</v>
       </c>
       <c r="I65">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J65">
-        <v>-0.81233506782857645</v>
+        <v>-0.57730460336692002</v>
       </c>
       <c r="K65">
-        <v>0.93019737956674209</v>
+        <v>-0.66145697538597248</v>
       </c>
       <c r="L65">
-        <v>1.273409517164134</v>
+        <v>-0.87636739853509726</v>
       </c>
       <c r="M65">
-        <v>2.3631685134831728</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>46.036198943086937</v>
+        <v>15.940739659213589</v>
       </c>
       <c r="E66">
-        <v>1.312524152420258</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F66">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G66">
-        <v>0.37010004888653719</v>
+        <v>0.87389535233067184</v>
       </c>
       <c r="H66">
-        <v>3.9356427687290898</v>
+        <v>-0.21614018473401159</v>
       </c>
       <c r="I66">
-        <v>-0.37636419247916458</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J66">
-        <v>-5.9648841251593761E-2</v>
+        <v>-0.31906729477971568</v>
       </c>
       <c r="K66">
-        <v>-0.15086093805190681</v>
+        <v>-1.323744355056242</v>
       </c>
       <c r="L66">
-        <v>-0.61841683053925989</v>
+        <v>-0.27969860180313272</v>
       </c>
       <c r="M66">
         <v>-0.46250204773865439</v>
@@ -4226,40 +4226,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>44.608176962349873</v>
+        <v>13.742359955826419</v>
       </c>
       <c r="E67">
-        <v>-1.1465728228039029</v>
+        <v>0.49282516067887078</v>
       </c>
       <c r="F67">
-        <v>0.52440781570139627</v>
+        <v>1.3431263749984541</v>
       </c>
       <c r="G67">
-        <v>4.8037134314550749E-2</v>
+        <v>-0.1284655455253059</v>
       </c>
       <c r="H67">
-        <v>-0.21649698844173801</v>
+        <v>-0.44468097698721121</v>
       </c>
       <c r="I67">
-        <v>0.75974704505528945</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J67">
-        <v>-0.73978765084576814</v>
+        <v>1.130206444410391</v>
       </c>
       <c r="K67">
-        <v>1.0989583052612151</v>
+        <v>-1.483261493543635</v>
       </c>
       <c r="L67">
-        <v>0.63316176026602378</v>
+        <v>-1.788321834219482</v>
       </c>
       <c r="M67">
         <v>-0.46250204773865439</v>
@@ -4267,204 +4267,204 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D68">
-        <v>44.230124258519787</v>
+        <v>84.969752735426141</v>
       </c>
       <c r="E68">
-        <v>1.312524152420258</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F68">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G68">
-        <v>8.246605211047385E-2</v>
+        <v>0.122560488024713</v>
       </c>
       <c r="H68">
-        <v>-0.2496991621556866</v>
+        <v>1.4975105571814551</v>
       </c>
       <c r="I68">
-        <v>0.73683437729961798</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J68">
-        <v>-0.30170939756997339</v>
+        <v>0.42753572269361589</v>
       </c>
       <c r="K68">
-        <v>0.29520125224731603</v>
+        <v>0.89798535726444617</v>
       </c>
       <c r="L68">
-        <v>-0.59134722161478059</v>
+        <v>0.83879033827241622</v>
       </c>
       <c r="M68">
-        <v>-0.46250204773865439</v>
+        <v>1.2423504978879221</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>42.781868785693007</v>
+        <v>69.695946210660765</v>
       </c>
       <c r="E69">
-        <v>1.312524152420258</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F69">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G69">
-        <v>-0.42220086950570962</v>
+        <v>1.6269734529807269</v>
       </c>
       <c r="H69">
-        <v>0.63303808673125728</v>
+        <v>7.060659327112058E-2</v>
       </c>
       <c r="I69">
-        <v>-0.19483104239712271</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J69">
-        <v>4.8075721250282658E-2</v>
+        <v>0.85817884103562303</v>
       </c>
       <c r="K69">
-        <v>-3.6120290817971093E-2</v>
+        <v>0.44607977223916478</v>
       </c>
       <c r="L69">
-        <v>-0.38528675595312051</v>
+        <v>-0.42108199903379739</v>
       </c>
       <c r="M69">
-        <v>6.8403741020193906E-2</v>
+        <v>-9.9879119568757932E-2</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>42.704504755709237</v>
+        <v>57.845785126735016</v>
       </c>
       <c r="E70">
-        <v>-0.73672332693320985</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F70">
-        <v>0.93376709534992508</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G70">
-        <v>-3.4330782944048843E-2</v>
+        <v>0.56011281039314831</v>
       </c>
       <c r="H70">
-        <v>-0.41872618371087439</v>
+        <v>-0.25846146110023033</v>
       </c>
       <c r="I70">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J70">
-        <v>0.65225522352469434</v>
+        <v>-0.82861074077009567</v>
       </c>
       <c r="K70">
-        <v>1.0910418990343611</v>
+        <v>0.80333010625602463</v>
       </c>
       <c r="L70">
-        <v>-0.61313992404336248</v>
+        <v>0.99400669240190243</v>
       </c>
       <c r="M70">
-        <v>-0.46250204773865439</v>
+        <v>1.0208740835789389</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>41.805369165421048</v>
+        <v>52.586905771756292</v>
       </c>
       <c r="E71">
-        <v>1.312524152420258</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F71">
-        <v>-0.19197092368352911</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G71">
-        <v>-1.4202036765014441</v>
+        <v>0.14961558581455761</v>
       </c>
       <c r="H71">
-        <v>-0.28906276270336889</v>
+        <v>-0.34188517778466831</v>
       </c>
       <c r="I71">
-        <v>-0.53449425950463025</v>
+        <v>0.97657120871119263</v>
       </c>
       <c r="J71">
-        <v>-0.50841464890093213</v>
+        <v>-0.64781542978111439</v>
       </c>
       <c r="K71">
-        <v>0.89823177056204873</v>
+        <v>0.74800905567230225</v>
       </c>
       <c r="L71">
-        <v>0.43135289042807562</v>
+        <v>0.42393554101667991</v>
       </c>
       <c r="M71">
-        <v>-0.46250204773865439</v>
+        <v>-0.38913902938189271</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>41.413291927255933</v>
+        <v>40.530759089252257</v>
       </c>
       <c r="E72">
-        <v>0.90267465654956414</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F72">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G72">
-        <v>-0.60436906746388286</v>
+        <v>1.803040323734562</v>
       </c>
       <c r="H72">
-        <v>-0.50928595622241302</v>
+        <v>2.50010559760394E-2</v>
       </c>
       <c r="I72">
-        <v>0.14483217471038479</v>
+        <v>1.169763440516522</v>
       </c>
       <c r="J72">
-        <v>-0.17260558250430061</v>
+        <v>-0.78377822934948238</v>
       </c>
       <c r="K72">
-        <v>0.43946882323684228</v>
+        <v>-0.84003820281762187</v>
       </c>
       <c r="L72">
-        <v>-5.7835815330123691E-2</v>
+        <v>0.49666236136209641</v>
       </c>
       <c r="M72">
         <v>-0.46250204773865439</v>
@@ -4472,81 +4472,81 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>41.207238058964677</v>
+        <v>35.947226040240842</v>
       </c>
       <c r="E73">
-        <v>0.49282516067887078</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F73">
-        <v>0.11504853605286749</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G73">
-        <v>0.15916845125075729</v>
+        <v>-0.85539510101390182</v>
       </c>
       <c r="H73">
-        <v>0.66380098519904385</v>
+        <v>0.32054786415454189</v>
       </c>
       <c r="I73">
-        <v>-0.53449425950463025</v>
+        <v>0.73054627669909311</v>
       </c>
       <c r="J73">
-        <v>-0.27504578544844882</v>
+        <v>-0.36640502961297788</v>
       </c>
       <c r="K73">
-        <v>0.29771634301554112</v>
+        <v>-1.045497221058743</v>
       </c>
       <c r="L73">
-        <v>0.11539055622033149</v>
+        <v>1.34926749936587</v>
       </c>
       <c r="M73">
-        <v>-0.24012860459212709</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>40.648338124643132</v>
+        <v>34.479614726752231</v>
       </c>
       <c r="E74">
-        <v>0.90267465654956414</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F74">
-        <v>0.31972817587713198</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G74">
-        <v>-4.695765094394168E-3</v>
+        <v>0.23238437770284581</v>
       </c>
       <c r="H74">
-        <v>-0.37438520623558241</v>
+        <v>1.899351671102397</v>
       </c>
       <c r="I74">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J74">
-        <v>0.41622644972335798</v>
+        <v>-0.1092631460088746</v>
       </c>
       <c r="K74">
-        <v>0.12317440101588339</v>
+        <v>0.34801691304242233</v>
       </c>
       <c r="L74">
-        <v>-0.49132338368781342</v>
+        <v>-0.51526627567035777</v>
       </c>
       <c r="M74">
         <v>-0.46250204773865439</v>
@@ -4554,16 +4554,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75">
-        <v>40.530759089252257</v>
+        <v>33.929018698726509</v>
       </c>
       <c r="E75">
         <v>8.2975664808177252E-2</v>
@@ -4572,104 +4572,104 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G75">
-        <v>1.803040323734562</v>
+        <v>-1.220145689885606</v>
       </c>
       <c r="H75">
-        <v>2.50010559760394E-2</v>
+        <v>-0.14333414652138179</v>
       </c>
       <c r="I75">
-        <v>1.169763440516522</v>
+        <v>0.1148059463180811</v>
       </c>
       <c r="J75">
-        <v>-0.78377822934948238</v>
+        <v>-1.055391234464079</v>
       </c>
       <c r="K75">
-        <v>-0.84003820281762187</v>
+        <v>0.2394365402942247</v>
       </c>
       <c r="L75">
-        <v>0.49666236136209641</v>
+        <v>1.0048622823293549</v>
       </c>
       <c r="M75">
-        <v>-0.46250204773865439</v>
+        <v>0.56382208116020338</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>38.609216951527728</v>
+        <v>29.83496992937167</v>
       </c>
       <c r="E76">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F76">
-        <v>1.3431263749984541</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G76">
-        <v>-1.3835957132754</v>
+        <v>-0.78217917456181285</v>
       </c>
       <c r="H76">
-        <v>1.381439384575065</v>
+        <v>-0.52953134103695154</v>
       </c>
       <c r="I76">
-        <v>2.8621379115704442</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J76">
-        <v>-1.263767200294756</v>
+        <v>-0.58119539761153427</v>
       </c>
       <c r="K76">
-        <v>5.5029153284792368E-2</v>
+        <v>0.60279110732578101</v>
       </c>
       <c r="L76">
-        <v>0.86080623345297569</v>
+        <v>0.49524902480142508</v>
       </c>
       <c r="M76">
-        <v>-0.18774551948433599</v>
+        <v>-0.39964859854024942</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>36.641530957777462</v>
+        <v>25.699793154015811</v>
       </c>
       <c r="E77">
-        <v>1.312524152420258</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F77">
-        <v>1.7524856546469829</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G77">
-        <v>5.7636529701903553E-3</v>
+        <v>-0.45270750552741329</v>
       </c>
       <c r="H77">
-        <v>-0.38798546327386862</v>
+        <v>-0.44727849728697511</v>
       </c>
       <c r="I77">
-        <v>-0.16065478293238139</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J77">
-        <v>-2.0335087631580619E-2</v>
+        <v>9.4516819038780328E-2</v>
       </c>
       <c r="K77">
-        <v>-0.1664040273578665</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L77">
-        <v>-0.50154954977634514</v>
+        <v>-1.741328797598102</v>
       </c>
       <c r="M77">
         <v>-0.46250204773865439</v>
@@ -4677,40 +4677,40 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D78">
-        <v>35.947226040240842</v>
+        <v>25.2464200666228</v>
       </c>
       <c r="E78">
         <v>8.2975664808177252E-2</v>
       </c>
       <c r="F78">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G78">
-        <v>-0.85539510101390182</v>
+        <v>0.47295099318828049</v>
       </c>
       <c r="H78">
-        <v>0.32054786415454189</v>
+        <v>-0.51753327799949622</v>
       </c>
       <c r="I78">
-        <v>0.73054627669909311</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J78">
-        <v>-0.36640502961297788</v>
+        <v>-0.43387002562694538</v>
       </c>
       <c r="K78">
-        <v>-1.045497221058743</v>
+        <v>-0.50317802465573069</v>
       </c>
       <c r="L78">
-        <v>1.34926749936587</v>
+        <v>-0.17797019652375309</v>
       </c>
       <c r="M78">
         <v>-0.46250204773865439</v>
@@ -4718,40 +4718,40 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>35.869856564859759</v>
+        <v>22.187898765980179</v>
       </c>
       <c r="E79">
-        <v>-0.73672332693320985</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F79">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G79">
-        <v>0.39973506673619169</v>
+        <v>1.9341370520327299</v>
       </c>
       <c r="H79">
-        <v>-0.29002458828867572</v>
+        <v>-0.40821470459565079</v>
       </c>
       <c r="I79">
-        <v>-0.53449425950463025</v>
+        <v>-0.31774021548677689</v>
       </c>
       <c r="J79">
-        <v>-1.314862437586959E-3</v>
+        <v>-0.12154339304661479</v>
       </c>
       <c r="K79">
-        <v>0.1975820551146619</v>
+        <v>-1.4264339378376569</v>
       </c>
       <c r="L79">
-        <v>0.46004844675325618</v>
+        <v>-0.15932813525994299</v>
       </c>
       <c r="M79">
         <v>-0.46250204773865439</v>
@@ -4759,40 +4759,40 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>35.229493422466312</v>
+        <v>19.66823793166385</v>
       </c>
       <c r="E80">
-        <v>-0.73672332693320985</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F80">
         <v>0.52440781570139627</v>
       </c>
       <c r="G80">
-        <v>-0.7717197564972289</v>
+        <v>0.25504645017611199</v>
       </c>
       <c r="H80">
-        <v>-0.54344259650320681</v>
+        <v>-0.61109863825058308</v>
       </c>
       <c r="I80">
-        <v>1.4398157710428129E-2</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J80">
-        <v>-0.1960338635952463</v>
+        <v>0.1030106687343587</v>
       </c>
       <c r="K80">
-        <v>0.38082186812219232</v>
+        <v>-0.80720154492095442</v>
       </c>
       <c r="L80">
-        <v>0.74122732786002621</v>
+        <v>-0.78585074962684542</v>
       </c>
       <c r="M80">
         <v>-0.46250204773865439</v>
@@ -4800,262 +4800,262 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>34.479614726752231</v>
+        <v>18.22385006668247</v>
       </c>
       <c r="E81">
         <v>8.2975664808177252E-2</v>
       </c>
       <c r="F81">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G81">
-        <v>0.23238437770284581</v>
+        <v>1.110975495127912</v>
       </c>
       <c r="H81">
-        <v>1.899351671102397</v>
+        <v>0.29002329194950999</v>
       </c>
       <c r="I81">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J81">
-        <v>-0.1092631460088746</v>
+        <v>-0.54755884412759825</v>
       </c>
       <c r="K81">
-        <v>0.34801691304242233</v>
+        <v>-0.38014746413251399</v>
       </c>
       <c r="L81">
-        <v>-0.51526627567035777</v>
+        <v>-0.64270966061165036</v>
       </c>
       <c r="M81">
-        <v>-0.46250204773865439</v>
+        <v>-0.46200779546329102</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>33.929018698726509</v>
+        <v>15.975355142747469</v>
       </c>
       <c r="E82">
         <v>8.2975664808177252E-2</v>
       </c>
       <c r="F82">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G82">
-        <v>-1.220145689885606</v>
+        <v>1.2155696757737531</v>
       </c>
       <c r="H82">
-        <v>-0.14333414652138179</v>
+        <v>-0.54355090036530673</v>
       </c>
       <c r="I82">
-        <v>0.1148059463180811</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J82">
-        <v>-1.055391234464079</v>
+        <v>0.13865037209089859</v>
       </c>
       <c r="K82">
-        <v>0.2394365402942247</v>
+        <v>-1.0933241041105519</v>
       </c>
       <c r="L82">
-        <v>1.0048622823293549</v>
+        <v>-1.008273616479759</v>
       </c>
       <c r="M82">
-        <v>0.56382208116020338</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>33.020309337810893</v>
+        <v>15.760069438430349</v>
       </c>
       <c r="E83">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F83">
-        <v>0.11504853605286749</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G83">
-        <v>-0.32545125240830658</v>
+        <v>0.27422204996118282</v>
       </c>
       <c r="H83">
-        <v>-0.49477327100942542</v>
+        <v>-0.51536371475714959</v>
       </c>
       <c r="I83">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J83">
-        <v>-0.94807776846889291</v>
+        <v>-0.33385499003084002</v>
       </c>
       <c r="K83">
-        <v>1.0989583052612151</v>
+        <v>-1.9396028385592941</v>
       </c>
       <c r="L83">
-        <v>0.98914685560423765</v>
+        <v>0.91995959197878918</v>
       </c>
       <c r="M83">
-        <v>-3.607832475575648E-2</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
       </c>
       <c r="D84">
-        <v>32.435732584395844</v>
+        <v>15.287037343311789</v>
       </c>
       <c r="E84">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F84">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G84">
-        <v>-1.2280118695647111</v>
+        <v>-0.1284655455253059</v>
       </c>
       <c r="H84">
-        <v>-0.43979964810932942</v>
+        <v>-0.39565716532361939</v>
       </c>
       <c r="I84">
-        <v>1.673316651694168</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J84">
-        <v>-0.7316287957099824</v>
+        <v>-0.46504340386354448</v>
       </c>
       <c r="K84">
-        <v>0.41069886619498641</v>
+        <v>-0.32672515114167078</v>
       </c>
       <c r="L84">
-        <v>0.67224168819726204</v>
+        <v>-0.38407979774747641</v>
       </c>
       <c r="M84">
-        <v>-0.42520581390621831</v>
+        <v>-0.45614615885937942</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85">
-        <v>32.197607872189657</v>
+        <v>14.62972554096083</v>
       </c>
       <c r="E85">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F85">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G85">
-        <v>-0.80309801069098108</v>
+        <v>-0.72360643340014219</v>
       </c>
       <c r="H85">
-        <v>2.7330782077545539</v>
+        <v>-0.38216116388563098</v>
       </c>
       <c r="I85">
-        <v>-0.53449425950463025</v>
+        <v>1.6816032846001141</v>
       </c>
       <c r="J85">
-        <v>0.26245894504262279</v>
+        <v>-0.9864976202793363</v>
       </c>
       <c r="K85">
-        <v>0.35804894910976992</v>
+        <v>-1.4990281410012161</v>
       </c>
       <c r="L85">
-        <v>5.6452669651323339E-2</v>
+        <v>0.13120267819774731</v>
       </c>
       <c r="M85">
-        <v>-0.46250204773865439</v>
+        <v>-0.33378239048017028</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>31.024167449048679</v>
+        <v>13.187862905718561</v>
       </c>
       <c r="E86">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F86">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G86">
-        <v>-1.1296642858185519</v>
+        <v>0.1129726881321774</v>
       </c>
       <c r="H86">
-        <v>1.471894814512887</v>
+        <v>-0.63325922163132198</v>
       </c>
       <c r="I86">
-        <v>3.3617521356186519</v>
+        <v>-0.36466265095087641</v>
       </c>
       <c r="J86">
-        <v>-0.71211476731694423</v>
+        <v>-0.63391807499719977</v>
       </c>
       <c r="K86">
-        <v>-0.48023416180322959</v>
+        <v>-1.0170308456478261</v>
       </c>
       <c r="L86">
-        <v>-8.3919038395873405E-2</v>
+        <v>-0.24196220420938841</v>
       </c>
       <c r="M86">
-        <v>-0.46250204773865439</v>
+        <v>0.15877543296615149</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>29.83496992937167</v>
+        <v>12.790943485589869</v>
       </c>
       <c r="E87">
         <v>8.2975664808177252E-2</v>
@@ -5064,186 +5064,186 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G87">
-        <v>-0.78217917456181285</v>
+        <v>2.0331475211554109</v>
       </c>
       <c r="H87">
-        <v>-0.52953134103695154</v>
+        <v>-0.31586673140326071</v>
       </c>
       <c r="I87">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J87">
-        <v>-0.58119539761153427</v>
+        <v>0.12862837389590809</v>
       </c>
       <c r="K87">
-        <v>0.60279110732578101</v>
+        <v>-1.2930375000506611</v>
       </c>
       <c r="L87">
-        <v>0.49524902480142508</v>
+        <v>-1.5769347353123899</v>
       </c>
       <c r="M87">
-        <v>-0.39964859854024942</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
       </c>
       <c r="D88">
-        <v>28.09714481521705</v>
+        <v>11.42759852397819</v>
       </c>
       <c r="E88">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F88">
-        <v>-0.70367002324419003</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G88">
-        <v>-0.36496460954117999</v>
+        <v>0.21669525060596981</v>
       </c>
       <c r="H88">
-        <v>-0.68202627360106238</v>
+        <v>0.99530927347568021</v>
       </c>
       <c r="I88">
-        <v>-0.42127318713546108</v>
+        <v>-0.1128140807700556</v>
       </c>
       <c r="J88">
-        <v>-0.92708294343949826</v>
+        <v>0.23777195712807109</v>
       </c>
       <c r="K88">
-        <v>0.35224363309963991</v>
+        <v>-1.172113800071118</v>
       </c>
       <c r="L88">
-        <v>1.0368527968086989</v>
+        <v>-1.661786280237356</v>
       </c>
       <c r="M88">
-        <v>0.6545139940832797</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D89">
-        <v>27.393210689896101</v>
+        <v>9.6382524582667841</v>
       </c>
       <c r="E89">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F89">
-        <v>0.72908745552566057</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G89">
-        <v>-1.3622794192597769</v>
+        <v>-1.043664626176416</v>
       </c>
       <c r="H89">
-        <v>-0.54345684734533872</v>
+        <v>-0.54021471586576897</v>
       </c>
       <c r="I89">
-        <v>2.093140388039048</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J89">
-        <v>-1.082642279925015</v>
+        <v>-0.86628448957558968</v>
       </c>
       <c r="K89">
-        <v>-6.5555941641884413E-2</v>
+        <v>-0.72492981272418455</v>
       </c>
       <c r="L89">
-        <v>0.83968003112019884</v>
+        <v>0.1803367632420606</v>
       </c>
       <c r="M89">
-        <v>-0.21309206243706161</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D90">
-        <v>26.898863978016969</v>
+        <v>8.3126909871002361</v>
       </c>
       <c r="E90">
-        <v>-0.73672332693320985</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F90">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G90">
-        <v>-0.73336855692708702</v>
+        <v>0.68213935447996221</v>
       </c>
       <c r="H90">
-        <v>-0.15122671161439899</v>
+        <v>-0.59566556374056101</v>
       </c>
       <c r="I90">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J90">
-        <v>-4.3466414394613261E-2</v>
+        <v>-0.90114376247454109</v>
       </c>
       <c r="K90">
-        <v>-0.22240601061503229</v>
+        <v>-1.381894539957881</v>
       </c>
       <c r="L90">
-        <v>0.45077193590395942</v>
+        <v>-0.22617547081372219</v>
       </c>
       <c r="M90">
-        <v>0.37772338755890522</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D91">
-        <v>26.256960957482718</v>
+        <v>7.817606446701002</v>
       </c>
       <c r="E91">
-        <v>-1.1465728228039029</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F91">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G91">
-        <v>-0.76997652015313145</v>
+        <v>0.91921949727720331</v>
       </c>
       <c r="H91">
-        <v>-0.63522225420221179</v>
+        <v>-0.36045007833251019</v>
       </c>
       <c r="I91">
-        <v>1.6167061155095841</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J91">
-        <v>-0.90378534819132961</v>
+        <v>0.56138952325913172</v>
       </c>
       <c r="K91">
-        <v>0.1909151011525084</v>
+        <v>-1.9640993664765729</v>
       </c>
       <c r="L91">
-        <v>0.42552735730830449</v>
+        <v>-1.739401447447382</v>
       </c>
       <c r="M91">
         <v>-0.46250204773865439</v>
@@ -5251,40 +5251,40 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D92">
-        <v>25.699793154015811</v>
+        <v>7.1081289340375458</v>
       </c>
       <c r="E92">
         <v>8.2975664808177252E-2</v>
       </c>
       <c r="F92">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G92">
-        <v>-0.45270750552741329</v>
+        <v>-0.31847830703191737</v>
       </c>
       <c r="H92">
-        <v>-0.44727849728697511</v>
+        <v>-7.445486209952816E-2</v>
       </c>
       <c r="I92">
-        <v>0.14483217471038479</v>
+        <v>0.6784674603611226</v>
       </c>
       <c r="J92">
-        <v>9.4516819038780328E-2</v>
+        <v>-0.71440049711840281</v>
       </c>
       <c r="K92">
-        <v>1.0989583052612151</v>
+        <v>-1.431715070101631</v>
       </c>
       <c r="L92">
-        <v>-1.741328797598102</v>
+        <v>-1.1077283509063169</v>
       </c>
       <c r="M92">
         <v>-0.46250204773865439</v>
@@ -5292,81 +5292,81 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D93">
-        <v>25.67805953792325</v>
+        <v>7.0018409103048738</v>
       </c>
       <c r="E93">
-        <v>-0.32687383106251622</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F93">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G93">
-        <v>1.5502710538404441</v>
+        <v>0.44157273899452842</v>
       </c>
       <c r="H93">
-        <v>-0.49320966169978231</v>
+        <v>-0.6156794922825618</v>
       </c>
       <c r="I93">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J93">
-        <v>-0.85740195564865418</v>
+        <v>-0.51235517074644765</v>
       </c>
       <c r="K93">
-        <v>-0.5234010081417485</v>
+        <v>-1.215264979763083</v>
       </c>
       <c r="L93">
-        <v>0.3496236199065344</v>
+        <v>-1.04581887813411</v>
       </c>
       <c r="M93">
-        <v>0.35226657246166959</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D94">
-        <v>25.2464200666228</v>
+        <v>5.5619908927898738</v>
       </c>
       <c r="E94">
         <v>8.2975664808177252E-2</v>
       </c>
       <c r="F94">
-        <v>-0.70367002324419003</v>
+        <v>0.31972817587713198</v>
       </c>
       <c r="G94">
-        <v>0.47295099318828049</v>
+        <v>0.19446898721872871</v>
       </c>
       <c r="H94">
-        <v>-0.51753327799949622</v>
+        <v>-0.49940369681022129</v>
       </c>
       <c r="I94">
-        <v>0.48449539181789231</v>
+        <v>-0.54993349664588043</v>
       </c>
       <c r="J94">
-        <v>-0.43387002562694538</v>
+        <v>-0.48539604379603418</v>
       </c>
       <c r="K94">
-        <v>-0.50317802465573069</v>
+        <v>-1.6076980408860191</v>
       </c>
       <c r="L94">
-        <v>-0.17797019652375309</v>
+        <v>-1.024409333471791</v>
       </c>
       <c r="M94">
         <v>-0.46250204773865439</v>
@@ -5374,122 +5374,122 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D95">
-        <v>24.979132132300229</v>
+        <v>1.855147482251708</v>
       </c>
       <c r="E95">
-        <v>-0.73672332693320985</v>
+        <v>8.2975664808177252E-2</v>
       </c>
       <c r="F95">
-        <v>-0.70367002324419003</v>
+        <v>1.7524856546469829</v>
       </c>
       <c r="G95">
-        <v>3.3851402132605943E-2</v>
+        <v>0.31257324953132448</v>
       </c>
       <c r="H95">
-        <v>0.73550833606830679</v>
+        <v>-0.60421211996339563</v>
       </c>
       <c r="I95">
-        <v>-0.1192129101431844</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J95">
-        <v>-0.40981811023720571</v>
+        <v>-0.4359040251560482</v>
       </c>
       <c r="K95">
-        <v>-0.21955222408242139</v>
+        <v>-2.6649488143165332</v>
       </c>
       <c r="L95">
-        <v>0.27529548461915421</v>
+        <v>-1.9487681639421781</v>
       </c>
       <c r="M95">
-        <v>-0.29236428143757548</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
       </c>
       <c r="D96">
-        <v>24.84303271658154</v>
+        <v>25.67805953792325</v>
       </c>
       <c r="E96">
-        <v>-1.1465728228039029</v>
+        <v>-0.32687383106251622</v>
       </c>
       <c r="F96">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G96">
-        <v>-0.40215365154859029</v>
+        <v>1.5502710538404441</v>
       </c>
       <c r="H96">
-        <v>-0.34935510633870098</v>
+        <v>-0.49320966169978231</v>
       </c>
       <c r="I96">
-        <v>0.48449539181789231</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J96">
-        <v>-0.79550516600974452</v>
+        <v>-0.85740195564865418</v>
       </c>
       <c r="K96">
-        <v>0.1267832054743257</v>
+        <v>-0.5234010081417485</v>
       </c>
       <c r="L96">
-        <v>0.68848973991473728</v>
+        <v>0.3496236199065344</v>
       </c>
       <c r="M96">
-        <v>-0.42294979832353752</v>
+        <v>0.35226657246166959</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>22.99070024046696</v>
+        <v>11.685041506176219</v>
       </c>
       <c r="E97">
-        <v>-1.1465728228039029</v>
+        <v>-0.32687383106251622</v>
       </c>
       <c r="F97">
-        <v>0.93376709534992508</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G97">
-        <v>-1.17266411563962</v>
+        <v>-0.15810056337496081</v>
       </c>
       <c r="H97">
-        <v>-0.63648153220340753</v>
+        <v>-0.44313792223860993</v>
       </c>
       <c r="I97">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J97">
-        <v>-0.10087770055483471</v>
+        <v>0.12776512002918211</v>
       </c>
       <c r="K97">
-        <v>0.62914816477656543</v>
+        <v>-0.74886823759748478</v>
       </c>
       <c r="L97">
-        <v>0.2288323560654022</v>
+        <v>-0.90568584181257461</v>
       </c>
       <c r="M97">
         <v>-0.46250204773865439</v>
@@ -5497,40 +5497,40 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>22.781025428039442</v>
+        <v>2.2465007916811932</v>
       </c>
       <c r="E98">
-        <v>-0.73672332693320985</v>
+        <v>-0.32687383106251622</v>
       </c>
       <c r="F98">
-        <v>0.93376709534992508</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G98">
-        <v>0.90178713383622933</v>
+        <v>0.5461669196403689</v>
       </c>
       <c r="H98">
-        <v>3.604721725006841E-3</v>
+        <v>-0.56066392369150808</v>
       </c>
       <c r="I98">
-        <v>0.14483217471038479</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J98">
-        <v>-0.1389616517026778</v>
+        <v>-0.81415370529000786</v>
       </c>
       <c r="K98">
-        <v>-0.26296681293207441</v>
+        <v>-2.2474339274229109</v>
       </c>
       <c r="L98">
-        <v>-0.68799643190111515</v>
+        <v>-1.353648941787104</v>
       </c>
       <c r="M98">
         <v>-0.46250204773865439</v>
@@ -5538,122 +5538,122 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
         <v>31</v>
       </c>
       <c r="D99">
-        <v>22.627617375709988</v>
+        <v>93.732051192529283</v>
       </c>
       <c r="E99">
-        <v>-1.1465728228039029</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F99">
-        <v>-0.70367002324419003</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G99">
-        <v>-0.95998928165974295</v>
+        <v>-0.38378252047159328</v>
       </c>
       <c r="H99">
-        <v>-0.55657722000999632</v>
+        <v>1.1490540915757519</v>
       </c>
       <c r="I99">
-        <v>-0.53449425950463025</v>
+        <v>2.8450551773804951</v>
       </c>
       <c r="J99">
-        <v>-0.46912847541504948</v>
+        <v>0.38018079314453418</v>
       </c>
       <c r="K99">
-        <v>1.005215765341015</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L99">
-        <v>0.26186163950770519</v>
+        <v>1.2273663810762321</v>
       </c>
       <c r="M99">
-        <v>-0.46250204773865439</v>
+        <v>1.204801887331018</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D100">
-        <v>22.187898765980179</v>
+        <v>80.492958550390995</v>
       </c>
       <c r="E100">
-        <v>8.2975664808177252E-2</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F100">
-        <v>-0.70367002324419003</v>
+        <v>2.3665245741197758</v>
       </c>
       <c r="G100">
-        <v>1.9341370520327299</v>
+        <v>-0.17553292681593441</v>
       </c>
       <c r="H100">
-        <v>-0.40821470459565079</v>
+        <v>0.81025313858750769</v>
       </c>
       <c r="I100">
-        <v>-0.31774021548677689</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J100">
-        <v>-0.12154339304661479</v>
+        <v>1.358522408720507</v>
       </c>
       <c r="K100">
-        <v>-1.4264339378376569</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L100">
-        <v>-0.15932813525994299</v>
+        <v>0.6962674907070775</v>
       </c>
       <c r="M100">
-        <v>-0.46250204773865439</v>
+        <v>-9.8166613126110663E-2</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
       </c>
       <c r="D101">
-        <v>22.022367630807491</v>
+        <v>73.384746223281226</v>
       </c>
       <c r="E101">
-        <v>-1.1465728228039029</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F101">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G101">
-        <v>-0.9024624823045303</v>
+        <v>0.39973506673619169</v>
       </c>
       <c r="H101">
-        <v>2.2988795083210931</v>
+        <v>0.4632861774379996</v>
       </c>
       <c r="I101">
-        <v>0.82415860892539972</v>
+        <v>1.4398157710428129E-2</v>
       </c>
       <c r="J101">
-        <v>-0.942339975195436</v>
+        <v>1.4621597359298839</v>
       </c>
       <c r="K101">
-        <v>-1.073927710524629</v>
+        <v>1.0777362513493229</v>
       </c>
       <c r="L101">
-        <v>1.464632483176376</v>
+        <v>-0.26632482392211171</v>
       </c>
       <c r="M101">
         <v>-0.46250204773865439</v>
@@ -5661,81 +5661,81 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D102">
-        <v>21.668720163596891</v>
+        <v>63.993680065841772</v>
       </c>
       <c r="E102">
-        <v>0.49282516067887078</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F102">
-        <v>-0.70367002324419003</v>
+        <v>-0.24314083363959521</v>
       </c>
       <c r="G102">
-        <v>2.400970389759951</v>
+        <v>0.98023276932061032</v>
       </c>
       <c r="H102">
-        <v>-0.32460588488041803</v>
+        <v>-0.44897319307881062</v>
       </c>
       <c r="I102">
-        <v>0.14695922614004819</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J102">
-        <v>-0.18444016931334209</v>
+        <v>0.47044871310444808</v>
       </c>
       <c r="K102">
-        <v>-1.179193269892217</v>
+        <v>0.53131069963230027</v>
       </c>
       <c r="L102">
-        <v>-1.1713501814804861</v>
+        <v>0.4576768979606452</v>
       </c>
       <c r="M102">
-        <v>-0.46189948278134813</v>
+        <v>0.80691392125085493</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D103">
-        <v>21.49106200313766</v>
+        <v>63.650055888621949</v>
       </c>
       <c r="E103">
-        <v>0.49282516067887078</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F103">
-        <v>-0.70367002324419003</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G103">
-        <v>1.009867787170265</v>
+        <v>0.48864012028515691</v>
       </c>
       <c r="H103">
-        <v>0.71476503236479993</v>
+        <v>-3.2720704188583687E-2</v>
       </c>
       <c r="I103">
-        <v>-0.53449425950463025</v>
+        <v>1.4398157710428129E-2</v>
       </c>
       <c r="J103">
-        <v>-0.51237494393763772</v>
+        <v>0.84806235492463622</v>
       </c>
       <c r="K103">
-        <v>-0.86806768194408213</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L103">
-        <v>-0.1620922889534874</v>
+        <v>-0.142322055404279</v>
       </c>
       <c r="M103">
         <v>-0.46250204773865439</v>
@@ -5743,40 +5743,40 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104">
-        <v>21.305380640889538</v>
+        <v>58.715966990944608</v>
       </c>
       <c r="E104">
-        <v>1.312524152420258</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F104">
-        <v>-0.70367002324419003</v>
+        <v>0.2173883559649997</v>
       </c>
       <c r="G104">
-        <v>0.82857120738414058</v>
+        <v>1.2736598346579661E-2</v>
       </c>
       <c r="H104">
-        <v>-0.39869003179076828</v>
+        <v>0.71633812057206403</v>
       </c>
       <c r="I104">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J104">
-        <v>-0.41085639381102879</v>
+        <v>1.004204014739811</v>
       </c>
       <c r="K104">
-        <v>-0.65079060083074591</v>
+        <v>0.80376885460292302</v>
       </c>
       <c r="L104">
-        <v>-0.73641970624377284</v>
+        <v>4.5241610102992207E-2</v>
       </c>
       <c r="M104">
         <v>-0.46250204773865439</v>
@@ -5784,163 +5784,163 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D105">
-        <v>20.957933899057199</v>
+        <v>51.557451001286509</v>
       </c>
       <c r="E105">
-        <v>0.49282516067887078</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F105">
-        <v>0.11504853605286749</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G105">
-        <v>4.4114852540331803E-2</v>
+        <v>6.5033688669500295E-2</v>
       </c>
       <c r="H105">
-        <v>0.17504849013765569</v>
+        <v>-1.549155668282075E-2</v>
       </c>
       <c r="I105">
-        <v>1.163821826032907</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J105">
-        <v>-0.43467156021010439</v>
+        <v>8.9257884002355958E-2</v>
       </c>
       <c r="K105">
-        <v>-0.45339558942761482</v>
+        <v>0.61639515544111767</v>
       </c>
       <c r="L105">
-        <v>-1.2524863191104489</v>
+        <v>0.49629169288070418</v>
       </c>
       <c r="M105">
-        <v>-0.4621241158196327</v>
+        <v>0.68553638394709993</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>20.6472844881418</v>
+        <v>49.660297258199769</v>
       </c>
       <c r="E106">
-        <v>-1.1465728228039029</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F106">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G106">
-        <v>1.1632725854508319</v>
+        <v>-0.9460433909069641</v>
       </c>
       <c r="H106">
-        <v>-0.54500010775739982</v>
+        <v>-1.7668371456005569E-2</v>
       </c>
       <c r="I106">
-        <v>-0.53449425950463025</v>
+        <v>1.4398157710428129E-2</v>
       </c>
       <c r="J106">
-        <v>-0.60371024905814785</v>
+        <v>-0.37764955914185899</v>
       </c>
       <c r="K106">
-        <v>-0.40980060093303472</v>
+        <v>0.27450237346776207</v>
       </c>
       <c r="L106">
-        <v>0.58566162842262026</v>
+        <v>1.247491718541583</v>
       </c>
       <c r="M106">
-        <v>-0.43664086530740948</v>
+        <v>1.1755201733402301</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>20.087783264259858</v>
+        <v>42.704504755709237</v>
       </c>
       <c r="E107">
-        <v>-1.1465728228039029</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F107">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G107">
-        <v>-0.47711281434477631</v>
+        <v>-3.4330782944048843E-2</v>
       </c>
       <c r="H107">
-        <v>1.4345645192719521</v>
+        <v>-0.41872618371087439</v>
       </c>
       <c r="I107">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J107">
-        <v>-0.30304405644275317</v>
+        <v>0.65225522352469434</v>
       </c>
       <c r="K107">
-        <v>0.26033442813912189</v>
+        <v>1.0910418990343611</v>
       </c>
       <c r="L107">
-        <v>-0.40734445569462002</v>
+        <v>-0.61313992404336248</v>
       </c>
       <c r="M107">
-        <v>0.247587124748951</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
       </c>
       <c r="D108">
-        <v>19.66823793166385</v>
+        <v>35.869856564859759</v>
       </c>
       <c r="E108">
-        <v>8.2975664808177252E-2</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F108">
-        <v>0.52440781570139627</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G108">
-        <v>0.25504645017611199</v>
+        <v>0.39973506673619169</v>
       </c>
       <c r="H108">
-        <v>-0.61109863825058308</v>
+        <v>-0.29002458828867572</v>
       </c>
       <c r="I108">
-        <v>0.14483217471038479</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J108">
-        <v>0.1030106687343587</v>
+        <v>-1.314862437586959E-3</v>
       </c>
       <c r="K108">
-        <v>-0.80720154492095442</v>
+        <v>0.1975820551146619</v>
       </c>
       <c r="L108">
-        <v>-0.78585074962684542</v>
+        <v>0.46004844675325618</v>
       </c>
       <c r="M108">
         <v>-0.46250204773865439</v>
@@ -5948,40 +5948,40 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D109">
-        <v>19.56700422751814</v>
+        <v>35.229493422466312</v>
       </c>
       <c r="E109">
-        <v>0.49282516067887078</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F109">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G109">
-        <v>0.4611841478656234</v>
+        <v>-0.7717197564972289</v>
       </c>
       <c r="H109">
-        <v>0.77109654306959863</v>
+        <v>-0.54344259650320681</v>
       </c>
       <c r="I109">
-        <v>-0.4572981963365973</v>
+        <v>1.4398157710428129E-2</v>
       </c>
       <c r="J109">
-        <v>-0.1754830252507531</v>
+        <v>-0.1960338635952463</v>
       </c>
       <c r="K109">
-        <v>-0.88066174985150725</v>
+        <v>0.38082186812219232</v>
       </c>
       <c r="L109">
-        <v>-0.53961395230416842</v>
+        <v>0.74122732786002621</v>
       </c>
       <c r="M109">
         <v>-0.46250204773865439</v>
@@ -5989,163 +5989,163 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D110">
-        <v>18.82635498202897</v>
+        <v>26.898863978016969</v>
       </c>
       <c r="E110">
-        <v>0.49282516067887078</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F110">
-        <v>0.93376709534992508</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G110">
-        <v>1.633946398357117</v>
+        <v>-0.73336855692708702</v>
       </c>
       <c r="H110">
-        <v>-0.41344969309023782</v>
+        <v>-0.15122671161439899</v>
       </c>
       <c r="I110">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J110">
-        <v>-8.8482379259480923E-2</v>
+        <v>-4.3466414394613261E-2</v>
       </c>
       <c r="K110">
-        <v>-1.139008648146683</v>
+        <v>-0.22240601061503229</v>
       </c>
       <c r="L110">
-        <v>-0.88307937575211404</v>
+        <v>0.45077193590395942</v>
       </c>
       <c r="M110">
-        <v>-0.46250204773865439</v>
+        <v>0.37772338755890522</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D111">
-        <v>18.717544998339211</v>
+        <v>24.979132132300229</v>
       </c>
       <c r="E111">
-        <v>0.90267465654956414</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F111">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G111">
-        <v>-0.95040148176720751</v>
+        <v>3.3851402132605943E-2</v>
       </c>
       <c r="H111">
-        <v>-0.49656103361469422</v>
+        <v>0.73550833606830679</v>
       </c>
       <c r="I111">
-        <v>-0.19483104239712271</v>
+        <v>-0.1192129101431844</v>
       </c>
       <c r="J111">
-        <v>0.24943648684472111</v>
+        <v>-0.40981811023720571</v>
       </c>
       <c r="K111">
-        <v>-0.28097710812521881</v>
+        <v>-0.21955222408242139</v>
       </c>
       <c r="L111">
-        <v>-1.233019913992967</v>
+        <v>0.27529548461915421</v>
       </c>
       <c r="M111">
-        <v>-0.46250204773865439</v>
+        <v>-0.29236428143757548</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D112">
-        <v>18.22385006668247</v>
+        <v>22.781025428039442</v>
       </c>
       <c r="E112">
-        <v>8.2975664808177252E-2</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F112">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G112">
-        <v>1.110975495127912</v>
+        <v>0.90178713383622933</v>
       </c>
       <c r="H112">
-        <v>0.29002329194950999</v>
+        <v>3.604721725006841E-3</v>
       </c>
       <c r="I112">
-        <v>-0.53449425950463025</v>
+        <v>0.14483217471038479</v>
       </c>
       <c r="J112">
-        <v>-0.54755884412759825</v>
+        <v>-0.1389616517026778</v>
       </c>
       <c r="K112">
-        <v>-0.38014746413251399</v>
+        <v>-0.26296681293207441</v>
       </c>
       <c r="L112">
-        <v>-0.64270966061165036</v>
+        <v>-0.68799643190111515</v>
       </c>
       <c r="M112">
-        <v>-0.46200779546329102</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D113">
-        <v>17.958065498347519</v>
+        <v>14.982223320010251</v>
       </c>
       <c r="E113">
-        <v>-1.1465728228039029</v>
+        <v>-0.73672332693320985</v>
       </c>
       <c r="F113">
-        <v>-0.1365290641162325</v>
+        <v>-0.60133020333205789</v>
       </c>
       <c r="G113">
-        <v>-1.792995175441809</v>
+        <v>0.7065446632973259</v>
       </c>
       <c r="H113">
-        <v>-0.5323981405854824</v>
+        <v>-0.76252043312461548</v>
       </c>
       <c r="I113">
-        <v>1.8091592943226971</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J113">
-        <v>-0.83715836648492947</v>
+        <v>6.9187992170090404E-2</v>
       </c>
       <c r="K113">
-        <v>0.37056662886029001</v>
+        <v>-0.44017771764923569</v>
       </c>
       <c r="L113">
-        <v>-0.18480925921783559</v>
+        <v>-0.81518298272118717</v>
       </c>
       <c r="M113">
         <v>-0.46250204773865439</v>
@@ -6153,286 +6153,286 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="D114">
-        <v>17.84250643298051</v>
+        <v>70.288720451260275</v>
       </c>
       <c r="E114">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F114">
-        <v>0.93376709534992508</v>
+        <v>-8.9631103771396867E-2</v>
       </c>
       <c r="G114">
-        <v>-1.247274631166986</v>
+        <v>-1.382941999646363</v>
       </c>
       <c r="H114">
-        <v>0.80813870718183112</v>
+        <v>-0.13828149802826331</v>
       </c>
       <c r="I114">
-        <v>1.0958891826114061</v>
+        <v>0.73924280464852277</v>
       </c>
       <c r="J114">
-        <v>-1.07132694956746</v>
+        <v>-0.85773431766624741</v>
       </c>
       <c r="K114">
-        <v>-8.9129627474975229E-2</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L114">
-        <v>0.40998578907498001</v>
+        <v>1.530996859026746</v>
       </c>
       <c r="M114">
-        <v>-0.46250204773865439</v>
+        <v>2.8719048200822019</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D115">
-        <v>17.826523716318661</v>
+        <v>60.46324841531662</v>
       </c>
       <c r="E115">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F115">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G115">
-        <v>-6.8748105245156456E-3</v>
+        <v>-8.9242727783115539E-2</v>
       </c>
       <c r="H115">
-        <v>3.9555486772469032E-3</v>
+        <v>0.35218641483588881</v>
       </c>
       <c r="I115">
-        <v>0.31466378326413852</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J115">
-        <v>-0.36596096509725667</v>
+        <v>-0.73776295345598808</v>
       </c>
       <c r="K115">
-        <v>8.006581660891976E-2</v>
+        <v>0.76904140755801953</v>
       </c>
       <c r="L115">
-        <v>-0.52143329580248055</v>
+        <v>1.16757293066279</v>
       </c>
       <c r="M115">
-        <v>-0.46250204773865439</v>
+        <v>1.3802103732273729</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D116">
-        <v>17.37082504912453</v>
+        <v>59.430706298721809</v>
       </c>
       <c r="E116">
-        <v>0.49282516067887078</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F116">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G116">
-        <v>0.52524808351120122</v>
+        <v>0.89655742480393708</v>
       </c>
       <c r="H116">
-        <v>-0.1137051948380576</v>
+        <v>-0.24977267502747119</v>
       </c>
       <c r="I116">
-        <v>-0.53449425950463025</v>
+        <v>-1.8223573881399949E-2</v>
       </c>
       <c r="J116">
-        <v>-0.31241481385663561</v>
+        <v>-0.2768077229687162</v>
       </c>
       <c r="K116">
-        <v>-1.073359320016535</v>
+        <v>0.75560887035202839</v>
       </c>
       <c r="L116">
-        <v>-0.2220052823907637</v>
+        <v>0.85480248054468977</v>
       </c>
       <c r="M116">
-        <v>-0.46250204773865439</v>
+        <v>0.6668546185879205</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>275</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D117">
-        <v>16.912731462106681</v>
+        <v>50.580729795440163</v>
       </c>
       <c r="E117">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F117">
-        <v>0.40160003180683779</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G117">
-        <v>-0.50674783219443131</v>
+        <v>-1.015772844670858</v>
       </c>
       <c r="H117">
-        <v>-9.1840585595996574E-2</v>
+        <v>-0.5256774292111579</v>
       </c>
       <c r="I117">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J117">
-        <v>-0.58523120347053104</v>
+        <v>-0.6586653670677628</v>
       </c>
       <c r="K117">
-        <v>0.85009112255122998</v>
+        <v>0.88140663240976103</v>
       </c>
       <c r="L117">
-        <v>-0.38745635305588733</v>
+        <v>1.349681234072345</v>
       </c>
       <c r="M117">
-        <v>-0.46250204773865439</v>
+        <v>1.828162039647661</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D118">
-        <v>16.846976279166348</v>
+        <v>49.974844186565157</v>
       </c>
       <c r="E118">
-        <v>0.49282516067887078</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F118">
-        <v>-0.70367002324419003</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G118">
-        <v>1.707162324809206</v>
+        <v>-0.73946988413142789</v>
       </c>
       <c r="H118">
-        <v>-0.51467422600299739</v>
+        <v>-0.35087992952168562</v>
       </c>
       <c r="I118">
-        <v>-0.53449425950463025</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J118">
-        <v>-0.57730460336692002</v>
+        <v>-0.51940461612884703</v>
       </c>
       <c r="K118">
-        <v>-0.66145697538597248</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L118">
-        <v>-0.87636739853509726</v>
+        <v>1.0308881761639721</v>
       </c>
       <c r="M118">
-        <v>-0.46250204773865439</v>
+        <v>0.99433014606842163</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
       </c>
       <c r="D119">
-        <v>16.046427219165508</v>
+        <v>46.623275745791616</v>
       </c>
       <c r="E119">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F119">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G119">
         <v>-1.451581930695196</v>
       </c>
       <c r="H119">
-        <v>-0.35557836096596801</v>
+        <v>-0.38639422214175589</v>
       </c>
       <c r="I119">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J119">
-        <v>0.2312562364172176</v>
+        <v>-0.81233506782857645</v>
       </c>
       <c r="K119">
-        <v>-0.31462034234194192</v>
+        <v>0.93019737956674209</v>
       </c>
       <c r="L119">
-        <v>0.17233445008412729</v>
+        <v>1.273409517164134</v>
       </c>
       <c r="M119">
-        <v>-0.46250204773865439</v>
+        <v>2.3631685134831728</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D120">
-        <v>15.975355142747469</v>
+        <v>44.608176962349873</v>
       </c>
       <c r="E120">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F120">
         <v>0.52440781570139627</v>
       </c>
       <c r="G120">
-        <v>1.2155696757737531</v>
+        <v>4.8037134314550749E-2</v>
       </c>
       <c r="H120">
-        <v>-0.54355090036530673</v>
+        <v>-0.21649698844173801</v>
       </c>
       <c r="I120">
-        <v>-0.53449425950463025</v>
+        <v>0.75974704505528945</v>
       </c>
       <c r="J120">
-        <v>0.13865037209089859</v>
+        <v>-0.73978765084576814</v>
       </c>
       <c r="K120">
-        <v>-1.0933241041105519</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L120">
-        <v>-1.008273616479759</v>
+        <v>0.63316176026602378</v>
       </c>
       <c r="M120">
         <v>-0.46250204773865439</v>
@@ -6440,163 +6440,163 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D121">
-        <v>15.940739659213589</v>
+        <v>38.609216951527728</v>
       </c>
       <c r="E121">
-        <v>0.49282516067887078</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F121">
-        <v>-0.70367002324419003</v>
+        <v>1.3431263749984541</v>
       </c>
       <c r="G121">
-        <v>0.87389535233067184</v>
+        <v>-1.3835957132754</v>
       </c>
       <c r="H121">
-        <v>-0.21614018473401159</v>
+        <v>1.381439384575065</v>
       </c>
       <c r="I121">
-        <v>-0.53449425950463025</v>
+        <v>2.8621379115704442</v>
       </c>
       <c r="J121">
-        <v>-0.31906729477971568</v>
+        <v>-1.263767200294756</v>
       </c>
       <c r="K121">
-        <v>-1.323744355056242</v>
+        <v>5.5029153284792368E-2</v>
       </c>
       <c r="L121">
-        <v>-0.27969860180313272</v>
+        <v>0.86080623345297569</v>
       </c>
       <c r="M121">
-        <v>-0.46250204773865439</v>
+        <v>-0.18774551948433599</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D122">
-        <v>15.760069438430349</v>
+        <v>33.020309337810893</v>
       </c>
       <c r="E122">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F122">
-        <v>-0.29431074359566128</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G122">
-        <v>0.27422204996118282</v>
+        <v>-0.32545125240830658</v>
       </c>
       <c r="H122">
-        <v>-0.51536371475714959</v>
+        <v>-0.49477327100942542</v>
       </c>
       <c r="I122">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J122">
-        <v>-0.33385499003084002</v>
+        <v>-0.94807776846889291</v>
       </c>
       <c r="K122">
-        <v>-1.9396028385592941</v>
+        <v>1.0989583052612151</v>
       </c>
       <c r="L122">
-        <v>0.91995959197878918</v>
+        <v>0.98914685560423765</v>
       </c>
       <c r="M122">
-        <v>-0.46250204773865439</v>
+        <v>-3.607832475575648E-2</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
       </c>
       <c r="D123">
-        <v>15.287037343311789</v>
+        <v>32.435732584395844</v>
       </c>
       <c r="E123">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F123">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G123">
-        <v>-0.1284655455253059</v>
+        <v>-1.2280118695647111</v>
       </c>
       <c r="H123">
-        <v>-0.39565716532361939</v>
+        <v>-0.43979964810932942</v>
       </c>
       <c r="I123">
-        <v>-0.53449425950463025</v>
+        <v>1.673316651694168</v>
       </c>
       <c r="J123">
-        <v>-0.46504340386354448</v>
+        <v>-0.7316287957099824</v>
       </c>
       <c r="K123">
-        <v>-0.32672515114167078</v>
+        <v>0.41069886619498641</v>
       </c>
       <c r="L123">
-        <v>-0.38407979774747641</v>
+        <v>0.67224168819726204</v>
       </c>
       <c r="M123">
-        <v>-0.45614615885937942</v>
+        <v>-0.42520581390621831</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
         <v>31</v>
       </c>
       <c r="D124">
-        <v>14.982223320010251</v>
+        <v>32.197607872189657</v>
       </c>
       <c r="E124">
-        <v>-0.73672332693320985</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F124">
-        <v>-0.60133020333205789</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G124">
-        <v>0.7065446632973259</v>
+        <v>-0.80309801069098108</v>
       </c>
       <c r="H124">
-        <v>-0.76252043312461548</v>
+        <v>2.7330782077545539</v>
       </c>
       <c r="I124">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J124">
-        <v>6.9187992170090404E-2</v>
+        <v>0.26245894504262279</v>
       </c>
       <c r="K124">
-        <v>-0.44017771764923569</v>
+        <v>0.35804894910976992</v>
       </c>
       <c r="L124">
-        <v>-0.81518298272118717</v>
+        <v>5.6452669651323339E-2</v>
       </c>
       <c r="M124">
         <v>-0.46250204773865439</v>
@@ -6604,40 +6604,40 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D125">
-        <v>14.86388814088467</v>
+        <v>31.024167449048679</v>
       </c>
       <c r="E125">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F125">
-        <v>-0.29431074359566128</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G125">
-        <v>-0.74086447320670556</v>
+        <v>-1.1296642858185519</v>
       </c>
       <c r="H125">
-        <v>-0.4593862566157853</v>
+        <v>1.471894814512887</v>
       </c>
       <c r="I125">
-        <v>0.72225964379314755</v>
+        <v>3.3617521356186519</v>
       </c>
       <c r="J125">
-        <v>-0.77920435382034048</v>
+        <v>-0.71211476731694423</v>
       </c>
       <c r="K125">
-        <v>-0.11230126337266159</v>
+        <v>-0.48023416180322959</v>
       </c>
       <c r="L125">
-        <v>2.1206564488274331E-2</v>
+        <v>-8.3919038395873405E-2</v>
       </c>
       <c r="M125">
         <v>-0.46250204773865439</v>
@@ -6645,16 +6645,16 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D126">
-        <v>14.75742028231064</v>
+        <v>28.09714481521705</v>
       </c>
       <c r="E126">
         <v>-1.1465728228039029</v>
@@ -6663,104 +6663,104 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G126">
-        <v>-1.412359112953006</v>
+        <v>-0.36496460954117999</v>
       </c>
       <c r="H126">
-        <v>-0.17396755608076159</v>
+        <v>-0.68202627360106238</v>
       </c>
       <c r="I126">
-        <v>1.163821826032907</v>
+        <v>-0.42127318713546108</v>
       </c>
       <c r="J126">
-        <v>-0.38519768215801908</v>
+        <v>-0.92708294343949826</v>
       </c>
       <c r="K126">
-        <v>-8.7212812037669951E-2</v>
+        <v>0.35224363309963991</v>
       </c>
       <c r="L126">
-        <v>-0.47775713649331802</v>
+        <v>1.0368527968086989</v>
       </c>
       <c r="M126">
-        <v>-0.46250204773865439</v>
+        <v>0.6545139940832797</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D127">
-        <v>14.62972554096083</v>
+        <v>27.393210689896101</v>
       </c>
       <c r="E127">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F127">
-        <v>0.52440781570139627</v>
+        <v>0.72908745552566057</v>
       </c>
       <c r="G127">
-        <v>-0.72360643340014219</v>
+        <v>-1.3622794192597769</v>
       </c>
       <c r="H127">
-        <v>-0.38216116388563098</v>
+        <v>-0.54345684734533872</v>
       </c>
       <c r="I127">
-        <v>1.6816032846001141</v>
+        <v>2.093140388039048</v>
       </c>
       <c r="J127">
-        <v>-0.9864976202793363</v>
+        <v>-1.082642279925015</v>
       </c>
       <c r="K127">
-        <v>-1.4990281410012161</v>
+        <v>-6.5555941641884413E-2</v>
       </c>
       <c r="L127">
-        <v>0.13120267819774731</v>
+        <v>0.83968003112019884</v>
       </c>
       <c r="M127">
-        <v>-0.33378239048017028</v>
+        <v>-0.21309206243706161</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
       </c>
       <c r="D128">
-        <v>13.742359955826419</v>
+        <v>26.256960957482718</v>
       </c>
       <c r="E128">
-        <v>0.49282516067887078</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F128">
-        <v>1.3431263749984541</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G128">
-        <v>-0.1284655455253059</v>
+        <v>-0.76997652015313145</v>
       </c>
       <c r="H128">
-        <v>-0.44468097698721121</v>
+        <v>-0.63522225420221179</v>
       </c>
       <c r="I128">
-        <v>-0.53449425950463025</v>
+        <v>1.6167061155095841</v>
       </c>
       <c r="J128">
-        <v>1.130206444410391</v>
+        <v>-0.90378534819132961</v>
       </c>
       <c r="K128">
-        <v>-1.483261493543635</v>
+        <v>0.1909151011525084</v>
       </c>
       <c r="L128">
-        <v>-1.788321834219482</v>
+        <v>0.42552735730830449</v>
       </c>
       <c r="M128">
         <v>-0.46250204773865439</v>
@@ -6768,122 +6768,122 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>13.60143619782386</v>
+        <v>24.84303271658154</v>
       </c>
       <c r="E129">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F129">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G129">
-        <v>-0.23044487165500099</v>
+        <v>-0.40215365154859029</v>
       </c>
       <c r="H129">
-        <v>0.45157409350358158</v>
+        <v>-0.34935510633870098</v>
       </c>
       <c r="I129">
-        <v>-0.19483104239712271</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J129">
-        <v>-0.91805359879150239</v>
+        <v>-0.79550516600974452</v>
       </c>
       <c r="K129">
-        <v>0.1013271479854758</v>
+        <v>0.1267832054743257</v>
       </c>
       <c r="L129">
-        <v>-8.0746324308508793E-3</v>
+        <v>0.68848973991473728</v>
       </c>
       <c r="M129">
-        <v>-0.46250204773865439</v>
+        <v>-0.42294979832353752</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
         <v>18</v>
       </c>
       <c r="D130">
-        <v>13.187862905718561</v>
+        <v>22.99070024046696</v>
       </c>
       <c r="E130">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F130">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G130">
-        <v>0.1129726881321774</v>
+        <v>-1.17266411563962</v>
       </c>
       <c r="H130">
-        <v>-0.63325922163132198</v>
+        <v>-0.63648153220340753</v>
       </c>
       <c r="I130">
-        <v>-0.36466265095087641</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J130">
-        <v>-0.63391807499719977</v>
+        <v>-0.10087770055483471</v>
       </c>
       <c r="K130">
-        <v>-1.0170308456478261</v>
+        <v>0.62914816477656543</v>
       </c>
       <c r="L130">
-        <v>-0.24196220420938841</v>
+        <v>0.2288323560654022</v>
       </c>
       <c r="M130">
-        <v>0.15877543296615149</v>
+        <v>-0.46250204773865439</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D131">
-        <v>12.790943485589869</v>
+        <v>22.627617375709988</v>
       </c>
       <c r="E131">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F131">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G131">
-        <v>2.0331475211554109</v>
+        <v>-0.95998928165974295</v>
       </c>
       <c r="H131">
-        <v>-0.31586673140326071</v>
+        <v>-0.55657722000999632</v>
       </c>
       <c r="I131">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J131">
-        <v>0.12862837389590809</v>
+        <v>-0.46912847541504948</v>
       </c>
       <c r="K131">
-        <v>-1.2930375000506611</v>
+        <v>1.005215765341015</v>
       </c>
       <c r="L131">
-        <v>-1.5769347353123899</v>
+        <v>0.26186163950770519</v>
       </c>
       <c r="M131">
         <v>-0.46250204773865439</v>
@@ -6891,16 +6891,16 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D132">
-        <v>12.50728123502102</v>
+        <v>22.022367630807491</v>
       </c>
       <c r="E132">
         <v>-1.1465728228039029</v>
@@ -6909,22 +6909,22 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G132">
-        <v>-1.394055131339984</v>
+        <v>-0.9024624823045303</v>
       </c>
       <c r="H132">
-        <v>-0.42003692093706679</v>
+        <v>2.2988795083210931</v>
       </c>
       <c r="I132">
-        <v>-0.36466265095087641</v>
+        <v>0.82415860892539972</v>
       </c>
       <c r="J132">
-        <v>0.70866961421537522</v>
+        <v>-0.942339975195436</v>
       </c>
       <c r="K132">
-        <v>-9.8710841680541186E-2</v>
+        <v>-1.073927710524629</v>
       </c>
       <c r="L132">
-        <v>-1.1410498346129609</v>
+        <v>1.464632483176376</v>
       </c>
       <c r="M132">
         <v>-0.46250204773865439</v>
@@ -6932,122 +6932,122 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D133">
-        <v>11.685041506176219</v>
+        <v>20.6472844881418</v>
       </c>
       <c r="E133">
-        <v>-0.32687383106251622</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F133">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G133">
-        <v>-0.15810056337496081</v>
+        <v>1.1632725854508319</v>
       </c>
       <c r="H133">
-        <v>-0.44313792223860993</v>
+        <v>-0.54500010775739982</v>
       </c>
       <c r="I133">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J133">
-        <v>0.12776512002918211</v>
+        <v>-0.60371024905814785</v>
       </c>
       <c r="K133">
-        <v>-0.74886823759748478</v>
+        <v>-0.40980060093303472</v>
       </c>
       <c r="L133">
-        <v>-0.90568584181257461</v>
+        <v>0.58566162842262026</v>
       </c>
       <c r="M133">
-        <v>-0.46250204773865439</v>
+        <v>-0.43664086530740948</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>11.42759852397819</v>
+        <v>20.087783264259858</v>
       </c>
       <c r="E134">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F134">
-        <v>-0.29431074359566128</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G134">
-        <v>0.21669525060596981</v>
+        <v>-0.47711281434477631</v>
       </c>
       <c r="H134">
-        <v>0.99530927347568021</v>
+        <v>1.4345645192719521</v>
       </c>
       <c r="I134">
-        <v>-0.1128140807700556</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J134">
-        <v>0.23777195712807109</v>
+        <v>-0.30304405644275317</v>
       </c>
       <c r="K134">
-        <v>-1.172113800071118</v>
+        <v>0.26033442813912189</v>
       </c>
       <c r="L134">
-        <v>-1.661786280237356</v>
+        <v>-0.40734445569462002</v>
       </c>
       <c r="M134">
-        <v>-0.46250204773865439</v>
+        <v>0.247587124748951</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D135">
-        <v>11.24284646721182</v>
+        <v>17.958065498347519</v>
       </c>
       <c r="E135">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F135">
-        <v>1.7524856546469829</v>
+        <v>-0.1365290641162325</v>
       </c>
       <c r="G135">
-        <v>-1.6032434926316661</v>
+        <v>-1.792995175441809</v>
       </c>
       <c r="H135">
-        <v>-0.25529056686411988</v>
+        <v>-0.5323981405854824</v>
       </c>
       <c r="I135">
-        <v>0.48449539181789231</v>
+        <v>1.8091592943226971</v>
       </c>
       <c r="J135">
-        <v>-0.26292582183783231</v>
+        <v>-0.83715836648492947</v>
       </c>
       <c r="K135">
-        <v>0.24942188030166301</v>
+        <v>0.37056662886029001</v>
       </c>
       <c r="L135">
-        <v>-1.0745523222730391</v>
+        <v>-0.18480925921783559</v>
       </c>
       <c r="M135">
         <v>-0.46250204773865439</v>
@@ -7055,40 +7055,40 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D136">
-        <v>10.928013064117041</v>
+        <v>17.84250643298051</v>
       </c>
       <c r="E136">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F136">
-        <v>-0.70367002324419003</v>
+        <v>0.93376709534992508</v>
       </c>
       <c r="G136">
-        <v>-0.56253139520554651</v>
+        <v>-1.247274631166986</v>
       </c>
       <c r="H136">
-        <v>-0.53546824850707775</v>
+        <v>0.80813870718183112</v>
       </c>
       <c r="I136">
-        <v>-4.2499857861496579E-3</v>
+        <v>1.0958891826114061</v>
       </c>
       <c r="J136">
-        <v>-0.15178431203044671</v>
+        <v>-1.07132694956746</v>
       </c>
       <c r="K136">
-        <v>-0.1122619227087905</v>
+        <v>-8.9129627474975229E-2</v>
       </c>
       <c r="L136">
-        <v>-0.91066097517459066</v>
+        <v>0.40998578907498001</v>
       </c>
       <c r="M136">
         <v>-0.46250204773865439</v>
@@ -7096,16 +7096,16 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D137">
-        <v>10.590183216496129</v>
+        <v>17.826523716318661</v>
       </c>
       <c r="E137">
         <v>-1.1465728228039029</v>
@@ -7114,22 +7114,22 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G137">
-        <v>1.4108121463126559</v>
+        <v>-6.8748105245156456E-3</v>
       </c>
       <c r="H137">
-        <v>-0.47689809533009297</v>
+        <v>3.9555486772469032E-3</v>
       </c>
       <c r="I137">
-        <v>-0.53449425950463025</v>
+        <v>0.31466378326413852</v>
       </c>
       <c r="J137">
-        <v>-0.77281130518523988</v>
+        <v>-0.36596096509725667</v>
       </c>
       <c r="K137">
-        <v>-0.655837041320249</v>
+        <v>8.006581660891976E-2</v>
       </c>
       <c r="L137">
-        <v>-0.31215373360007193</v>
+        <v>-0.52143329580248055</v>
       </c>
       <c r="M137">
         <v>-0.46250204773865439</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D138">
-        <v>9.6382524582667841</v>
+        <v>16.912731462106681</v>
       </c>
       <c r="E138">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F138">
-        <v>-0.70367002324419003</v>
+        <v>0.40160003180683779</v>
       </c>
       <c r="G138">
-        <v>-1.043664626176416</v>
+        <v>-0.50674783219443131</v>
       </c>
       <c r="H138">
-        <v>-0.54021471586576897</v>
+        <v>-9.1840585595996574E-2</v>
       </c>
       <c r="I138">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J138">
-        <v>-0.86628448957558968</v>
+        <v>-0.58523120347053104</v>
       </c>
       <c r="K138">
-        <v>-0.72492981272418455</v>
+        <v>0.85009112255122998</v>
       </c>
       <c r="L138">
-        <v>0.1803367632420606</v>
+        <v>-0.38745635305588733</v>
       </c>
       <c r="M138">
         <v>-0.46250204773865439</v>
@@ -7178,16 +7178,16 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="B139" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D139">
-        <v>8.9977779815064061</v>
+        <v>16.046427219165508</v>
       </c>
       <c r="E139">
         <v>-1.1465728228039029</v>
@@ -7196,22 +7196,22 @@
         <v>0.52440781570139627</v>
       </c>
       <c r="G139">
-        <v>-1.5404869842441611</v>
+        <v>-1.451581930695196</v>
       </c>
       <c r="H139">
-        <v>-0.61583771410682653</v>
+        <v>-0.35557836096596801</v>
       </c>
       <c r="I139">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J139">
-        <v>-0.6578620880214231</v>
+        <v>0.2312562364172176</v>
       </c>
       <c r="K139">
-        <v>-0.13253900330129831</v>
+        <v>-0.31462034234194192</v>
       </c>
       <c r="L139">
-        <v>0.16296535890465799</v>
+        <v>0.17233445008412729</v>
       </c>
       <c r="M139">
         <v>-0.46250204773865439</v>
@@ -7219,40 +7219,40 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D140">
-        <v>8.3126909871002361</v>
+        <v>14.86388814088467</v>
       </c>
       <c r="E140">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F140">
-        <v>-0.70367002324419003</v>
+        <v>-0.29431074359566128</v>
       </c>
       <c r="G140">
-        <v>0.68213935447996221</v>
+        <v>-0.74086447320670556</v>
       </c>
       <c r="H140">
-        <v>-0.59566556374056101</v>
+        <v>-0.4593862566157853</v>
       </c>
       <c r="I140">
-        <v>-0.53449425950463025</v>
+        <v>0.72225964379314755</v>
       </c>
       <c r="J140">
-        <v>-0.90114376247454109</v>
+        <v>-0.77920435382034048</v>
       </c>
       <c r="K140">
-        <v>-1.381894539957881</v>
+        <v>-0.11230126337266159</v>
       </c>
       <c r="L140">
-        <v>-0.22617547081372219</v>
+        <v>2.1206564488274331E-2</v>
       </c>
       <c r="M140">
         <v>-0.46250204773865439</v>
@@ -7260,40 +7260,40 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>8.0425782874404614</v>
+        <v>14.75742028231064</v>
       </c>
       <c r="E141">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F141">
-        <v>0.11504853605286749</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G141">
-        <v>0.69608524523274151</v>
+        <v>-1.412359112953006</v>
       </c>
       <c r="H141">
-        <v>-0.43390537987515698</v>
+        <v>-0.17396755608076159</v>
       </c>
       <c r="I141">
-        <v>0.82415860892539972</v>
+        <v>1.163821826032907</v>
       </c>
       <c r="J141">
-        <v>-0.60217915578757808</v>
+        <v>-0.38519768215801908</v>
       </c>
       <c r="K141">
-        <v>-1.1763714923442301</v>
+        <v>-8.7212812037669951E-2</v>
       </c>
       <c r="L141">
-        <v>-1.0309190723937589</v>
+        <v>-0.47775713649331802</v>
       </c>
       <c r="M141">
         <v>-0.46250204773865439</v>
@@ -7301,40 +7301,40 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
       </c>
       <c r="D142">
-        <v>7.817606446701002</v>
+        <v>13.60143619782386</v>
       </c>
       <c r="E142">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F142">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G142">
-        <v>0.91921949727720331</v>
+        <v>-0.23044487165500099</v>
       </c>
       <c r="H142">
-        <v>-0.36045007833251019</v>
+        <v>0.45157409350358158</v>
       </c>
       <c r="I142">
-        <v>-0.53449425950463025</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J142">
-        <v>0.56138952325913172</v>
+        <v>-0.91805359879150239</v>
       </c>
       <c r="K142">
-        <v>-1.9640993664765729</v>
+        <v>0.1013271479854758</v>
       </c>
       <c r="L142">
-        <v>-1.739401447447382</v>
+        <v>-8.0746324308508793E-3</v>
       </c>
       <c r="M142">
         <v>-0.46250204773865439</v>
@@ -7342,40 +7342,40 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143">
-        <v>7.7457132792099106</v>
+        <v>12.50728123502102</v>
       </c>
       <c r="E143">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F143">
-        <v>1.3431263749984541</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G143">
-        <v>-1.441122512630612</v>
+        <v>-1.394055131339984</v>
       </c>
       <c r="H143">
-        <v>-0.1740549660653391</v>
+        <v>-0.42003692093706679</v>
       </c>
       <c r="I143">
-        <v>-0.53449425950463025</v>
+        <v>-0.36466265095087641</v>
       </c>
       <c r="J143">
-        <v>-0.67973576246709222</v>
+        <v>0.70866961421537522</v>
       </c>
       <c r="K143">
-        <v>0.2324666243718736</v>
+        <v>-9.8710841680541186E-2</v>
       </c>
       <c r="L143">
-        <v>-0.6144894823867153</v>
+        <v>-1.1410498346129609</v>
       </c>
       <c r="M143">
         <v>-0.46250204773865439</v>
@@ -7383,40 +7383,40 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D144">
-        <v>7.2193188938211863</v>
+        <v>11.24284646721182</v>
       </c>
       <c r="E144">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F144">
-        <v>-0.70367002324419003</v>
+        <v>1.7524856546469829</v>
       </c>
       <c r="G144">
-        <v>-1.7339862184389681</v>
+        <v>-1.6032434926316661</v>
       </c>
       <c r="H144">
-        <v>-0.62019175278023486</v>
+        <v>-0.25529056686411988</v>
       </c>
       <c r="I144">
-        <v>-0.53449425950463025</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J144">
-        <v>-1.0485072495409771</v>
+        <v>-0.26292582183783231</v>
       </c>
       <c r="K144">
-        <v>-0.15770738163966169</v>
+        <v>0.24942188030166301</v>
       </c>
       <c r="L144">
-        <v>0.47549284072250159</v>
+        <v>-1.0745523222730391</v>
       </c>
       <c r="M144">
         <v>-0.46250204773865439</v>
@@ -7424,40 +7424,40 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D145">
-        <v>7.1081289340375458</v>
+        <v>10.928013064117041</v>
       </c>
       <c r="E145">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F145">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G145">
-        <v>-0.31847830703191737</v>
+        <v>-0.56253139520554651</v>
       </c>
       <c r="H145">
-        <v>-7.445486209952816E-2</v>
+        <v>-0.53546824850707775</v>
       </c>
       <c r="I145">
-        <v>0.6784674603611226</v>
+        <v>-4.2499857861496579E-3</v>
       </c>
       <c r="J145">
-        <v>-0.71440049711840281</v>
+        <v>-0.15178431203044671</v>
       </c>
       <c r="K145">
-        <v>-1.431715070101631</v>
+        <v>-0.1122619227087905</v>
       </c>
       <c r="L145">
-        <v>-1.1077283509063169</v>
+        <v>-0.91066097517459066</v>
       </c>
       <c r="M145">
         <v>-0.46250204773865439</v>
@@ -7465,40 +7465,40 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
       </c>
       <c r="D146">
-        <v>7.0018409103048738</v>
+        <v>10.590183216496129</v>
       </c>
       <c r="E146">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F146">
         <v>-0.70367002324419003</v>
       </c>
       <c r="G146">
-        <v>0.44157273899452842</v>
+        <v>1.4108121463126559</v>
       </c>
       <c r="H146">
-        <v>-0.6156794922825618</v>
+        <v>-0.47689809533009297</v>
       </c>
       <c r="I146">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J146">
-        <v>-0.51235517074644765</v>
+        <v>-0.77281130518523988</v>
       </c>
       <c r="K146">
-        <v>-1.215264979763083</v>
+        <v>-0.655837041320249</v>
       </c>
       <c r="L146">
-        <v>-1.04581887813411</v>
+        <v>-0.31215373360007193</v>
       </c>
       <c r="M146">
         <v>-0.46250204773865439</v>
@@ -7506,40 +7506,40 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D147">
-        <v>6.5719650404754892</v>
+        <v>8.9977779815064061</v>
       </c>
       <c r="E147">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F147">
-        <v>6.0507580909565339</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G147">
-        <v>-1.6973782552129231</v>
+        <v>-1.5404869842441611</v>
       </c>
       <c r="H147">
-        <v>-0.1034911782172863</v>
+        <v>-0.61583771410682653</v>
       </c>
       <c r="I147">
-        <v>-0.19483104239712271</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J147">
-        <v>-1.192865224751761</v>
+        <v>-0.6578620880214231</v>
       </c>
       <c r="K147">
-        <v>0.5253633672317064</v>
+        <v>-0.13253900330129831</v>
       </c>
       <c r="L147">
-        <v>-0.93483113128320505</v>
+        <v>0.16296535890465799</v>
       </c>
       <c r="M147">
         <v>-0.46250204773865439</v>
@@ -7547,40 +7547,40 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="C148" t="s">
         <v>31</v>
       </c>
       <c r="D148">
-        <v>6.003656751879622</v>
+        <v>8.0425782874404614</v>
       </c>
       <c r="E148">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F148">
-        <v>0.52440781570139627</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G148">
-        <v>-0.55032874079686511</v>
+        <v>0.69608524523274151</v>
       </c>
       <c r="H148">
-        <v>-0.43031277294760012</v>
+        <v>-0.43390537987515698</v>
       </c>
       <c r="I148">
-        <v>-0.53449425950463025</v>
+        <v>0.82415860892539972</v>
       </c>
       <c r="J148">
-        <v>-0.63504526632363745</v>
+        <v>-0.60217915578757808</v>
       </c>
       <c r="K148">
-        <v>-0.89381042392591037</v>
+        <v>-1.1763714923442301</v>
       </c>
       <c r="L148">
-        <v>-0.31869514898447421</v>
+        <v>-1.0309190723937589</v>
       </c>
       <c r="M148">
         <v>-0.46250204773865439</v>
@@ -7588,40 +7588,40 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149">
-        <v>5.9749500983074233</v>
+        <v>7.7457132792099106</v>
       </c>
       <c r="E149">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F149">
-        <v>0.52440781570139627</v>
+        <v>1.3431263749984541</v>
       </c>
       <c r="G149">
-        <v>-0.8030980106909813</v>
+        <v>-1.441122512630612</v>
       </c>
       <c r="H149">
-        <v>0.68566537298667019</v>
+        <v>-0.1740549660653391</v>
       </c>
       <c r="I149">
-        <v>2.1828114773554299</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J149">
-        <v>-1.03237767132707</v>
+        <v>-0.67973576246709222</v>
       </c>
       <c r="K149">
-        <v>-1.40309646357727</v>
+        <v>0.2324666243718736</v>
       </c>
       <c r="L149">
-        <v>-1.1019089976711931</v>
+        <v>-0.6144894823867153</v>
       </c>
       <c r="M149">
         <v>-0.46250204773865439</v>
@@ -7629,40 +7629,40 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
       </c>
       <c r="D150">
-        <v>5.9568408794059744</v>
+        <v>7.2193188938211863</v>
       </c>
       <c r="E150">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F150">
-        <v>0.52440781570139627</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G150">
-        <v>-0.17901939950412929</v>
+        <v>-1.7339862184389681</v>
       </c>
       <c r="H150">
-        <v>-0.33293140087456152</v>
+        <v>-0.62019175278023486</v>
       </c>
       <c r="I150">
-        <v>0.48449539181789231</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J150">
-        <v>-0.79658190851642019</v>
+        <v>-1.0485072495409771</v>
       </c>
       <c r="K150">
-        <v>-0.91206597097169162</v>
+        <v>-0.15770738163966169</v>
       </c>
       <c r="L150">
-        <v>-0.95234672317786484</v>
+        <v>0.47549284072250159</v>
       </c>
       <c r="M150">
         <v>-0.46250204773865439</v>
@@ -7670,40 +7670,40 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D151">
-        <v>5.5619908927898738</v>
+        <v>6.5719650404754892</v>
       </c>
       <c r="E151">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F151">
-        <v>0.31972817587713198</v>
+        <v>6.0507580909565339</v>
       </c>
       <c r="G151">
-        <v>0.19446898721872871</v>
+        <v>-1.6973782552129231</v>
       </c>
       <c r="H151">
-        <v>-0.49940369681022129</v>
+        <v>-0.1034911782172863</v>
       </c>
       <c r="I151">
-        <v>-0.54993349664588043</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J151">
-        <v>-0.48539604379603418</v>
+        <v>-1.192865224751761</v>
       </c>
       <c r="K151">
-        <v>-1.6076980408860191</v>
+        <v>0.5253633672317064</v>
       </c>
       <c r="L151">
-        <v>-1.024409333471791</v>
+        <v>-0.93483113128320505</v>
       </c>
       <c r="M151">
         <v>-0.46250204773865439</v>
@@ -7711,40 +7711,40 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D152">
-        <v>5.1339715925696359</v>
+        <v>6.003656751879622</v>
       </c>
       <c r="E152">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F152">
-        <v>-0.70367002324419003</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G152">
-        <v>0.64727462759801591</v>
+        <v>-0.55032874079686511</v>
       </c>
       <c r="H152">
-        <v>-0.45035768629780532</v>
+        <v>-0.43031277294760012</v>
       </c>
       <c r="I152">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J152">
-        <v>-0.2399346454164549</v>
+        <v>-0.63504526632363745</v>
       </c>
       <c r="K152">
-        <v>-1.0383167584960711</v>
+        <v>-0.89381042392591037</v>
       </c>
       <c r="L152">
-        <v>-1.44599331225023</v>
+        <v>-0.31869514898447421</v>
       </c>
       <c r="M152">
         <v>-0.46250204773865439</v>
@@ -7752,40 +7752,40 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D153">
-        <v>5.0991476557548987</v>
+        <v>5.9749500983074233</v>
       </c>
       <c r="E153">
-        <v>0.90267465654956414</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F153">
-        <v>0.93376709534992508</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G153">
-        <v>-0.74034150230347662</v>
+        <v>-0.8030980106909813</v>
       </c>
       <c r="H153">
-        <v>-0.58293949659888644</v>
+        <v>0.68566537298667019</v>
       </c>
       <c r="I153">
-        <v>-0.53449425950463025</v>
+        <v>2.1828114773554299</v>
       </c>
       <c r="J153">
-        <v>-0.7213994693676159</v>
+        <v>-1.03237767132707</v>
       </c>
       <c r="K153">
-        <v>-1.444112533977165</v>
+        <v>-1.40309646357727</v>
       </c>
       <c r="L153">
-        <v>-1.114058776713255</v>
+        <v>-1.1019089976711931</v>
       </c>
       <c r="M153">
         <v>-0.46250204773865439</v>
@@ -7793,40 +7793,40 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D154">
-        <v>4.3028565845917504</v>
+        <v>5.9568408794059744</v>
       </c>
       <c r="E154">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F154">
-        <v>0.11504853605286749</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G154">
-        <v>-1.636364983169516</v>
+        <v>-0.17901939950412929</v>
       </c>
       <c r="H154">
-        <v>4.6492036022760239E-2</v>
+        <v>-0.33293140087456152</v>
       </c>
       <c r="I154">
-        <v>-0.53449425950463025</v>
+        <v>0.48449539181789231</v>
       </c>
       <c r="J154">
-        <v>-0.93004844001725151</v>
+        <v>-0.79658190851642019</v>
       </c>
       <c r="K154">
-        <v>-0.50867885278974778</v>
+        <v>-0.91206597097169162</v>
       </c>
       <c r="L154">
-        <v>-0.40590190641720569</v>
+        <v>-0.95234672317786484</v>
       </c>
       <c r="M154">
         <v>-0.46250204773865439</v>
@@ -7834,16 +7834,16 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D155">
-        <v>3.5534660168639221</v>
+        <v>5.1339715925696359</v>
       </c>
       <c r="E155">
         <v>-1.1465728228039029</v>
@@ -7852,22 +7852,22 @@
         <v>-0.70367002324419003</v>
       </c>
       <c r="G155">
-        <v>0.70305819060913088</v>
+        <v>0.64727462759801591</v>
       </c>
       <c r="H155">
-        <v>0.96736965923938734</v>
+        <v>-0.45035768629780532</v>
       </c>
       <c r="I155">
-        <v>-0.19483104239712271</v>
+        <v>-0.53449425950463025</v>
       </c>
       <c r="J155">
-        <v>-0.29925001368449838</v>
+        <v>-0.2399346454164549</v>
       </c>
       <c r="K155">
-        <v>-1.675668784113989</v>
+        <v>-1.0383167584960711</v>
       </c>
       <c r="L155">
-        <v>-1.8430120663626579</v>
+        <v>-1.44599331225023</v>
       </c>
       <c r="M155">
         <v>-0.46250204773865439</v>
@@ -7875,40 +7875,40 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D156">
-        <v>3.2626827120037549</v>
+        <v>4.3028565845917504</v>
       </c>
       <c r="E156">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F156">
-        <v>-0.70367002324419003</v>
+        <v>0.11504853605286749</v>
       </c>
       <c r="G156">
-        <v>4.4114852540331803E-2</v>
+        <v>-1.636364983169516</v>
       </c>
       <c r="H156">
-        <v>-0.60710054372420263</v>
+        <v>4.6492036022760239E-2</v>
       </c>
       <c r="I156">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J156">
-        <v>-0.39709549694275331</v>
+        <v>-0.93004844001725151</v>
       </c>
       <c r="K156">
-        <v>-1.5500621230260669</v>
+        <v>-0.50867885278974778</v>
       </c>
       <c r="L156">
-        <v>-1.147855812164631</v>
+        <v>-0.40590190641720569</v>
       </c>
       <c r="M156">
         <v>-0.46250204773865439</v>
@@ -7916,40 +7916,40 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D157">
-        <v>2.9384651838102829</v>
+        <v>3.5534660168639221</v>
       </c>
       <c r="E157">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F157">
-        <v>1.6160325614308071</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G157">
-        <v>-0.69676059370104293</v>
+        <v>0.70305819060913088</v>
       </c>
       <c r="H157">
-        <v>-0.41677197448223119</v>
+        <v>0.96736965923938734</v>
       </c>
       <c r="I157">
-        <v>-0.53449425950463025</v>
+        <v>-0.19483104239712271</v>
       </c>
       <c r="J157">
-        <v>-0.90872747138051713</v>
+        <v>-0.29925001368449838</v>
       </c>
       <c r="K157">
-        <v>-1.0525182197335621</v>
+        <v>-1.675668784113989</v>
       </c>
       <c r="L157">
-        <v>-0.98536943287005663</v>
+        <v>-1.8430120663626579</v>
       </c>
       <c r="M157">
         <v>-0.46250204773865439</v>
@@ -7957,40 +7957,40 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>288</v>
+        <v>101</v>
       </c>
       <c r="B158" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
       </c>
       <c r="D158">
-        <v>2.8992050587230458</v>
+        <v>3.2626827120037549</v>
       </c>
       <c r="E158">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F158">
-        <v>2.5712042139440401</v>
+        <v>-0.70367002324419003</v>
       </c>
       <c r="G158">
-        <v>-1.3574471681139391</v>
+        <v>4.4114852540331803E-2</v>
       </c>
       <c r="H158">
-        <v>-0.52050643637493699</v>
+        <v>-0.60710054372420263</v>
       </c>
       <c r="I158">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J158">
-        <v>-0.20930560726501329</v>
+        <v>-0.39709549694275331</v>
       </c>
       <c r="K158">
-        <v>-1.2419987740002121</v>
+        <v>-1.5500621230260669</v>
       </c>
       <c r="L158">
-        <v>-1.4017863788585481</v>
+        <v>-1.147855812164631</v>
       </c>
       <c r="M158">
         <v>-0.46250204773865439</v>
@@ -7998,40 +7998,40 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>2.7700090743669028</v>
+        <v>2.9384651838102829</v>
       </c>
       <c r="E159">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F159">
-        <v>0.52440781570139627</v>
+        <v>1.6160325614308071</v>
       </c>
       <c r="G159">
-        <v>-1.8333506900525161</v>
+        <v>-0.69676059370104293</v>
       </c>
       <c r="H159">
-        <v>-0.47928548238373042</v>
+        <v>-0.41677197448223119</v>
       </c>
       <c r="I159">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J159">
-        <v>-0.59685539447410541</v>
+        <v>-0.90872747138051713</v>
       </c>
       <c r="K159">
-        <v>-0.92682204767856458</v>
+        <v>-1.0525182197335621</v>
       </c>
       <c r="L159">
-        <v>-0.94791030475229965</v>
+        <v>-0.98536943287005663</v>
       </c>
       <c r="M159">
         <v>-0.46250204773865439</v>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D160">
-        <v>2.4809368094485702</v>
+        <v>2.8992050587230458</v>
       </c>
       <c r="E160">
         <v>-1.1465728228039029</v>
       </c>
       <c r="F160">
-        <v>1.7524856546469829</v>
+        <v>2.5712042139440401</v>
       </c>
       <c r="G160">
-        <v>-1.085502298434752</v>
+        <v>-1.3574471681139391</v>
       </c>
       <c r="H160">
-        <v>-0.65531174617594967</v>
+        <v>-0.52050643637493699</v>
       </c>
       <c r="I160">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J160">
-        <v>-1.0537409815247569</v>
+        <v>-0.20930560726501329</v>
       </c>
       <c r="K160">
-        <v>-0.96842334497054205</v>
+        <v>-1.2419987740002121</v>
       </c>
       <c r="L160">
-        <v>-0.93027464743846311</v>
+        <v>-1.4017863788585481</v>
       </c>
       <c r="M160">
         <v>-0.46250204773865439</v>
@@ -8080,40 +8080,40 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D161">
-        <v>2.2465007916811932</v>
+        <v>2.7700090743669028</v>
       </c>
       <c r="E161">
-        <v>-0.32687383106251622</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F161">
-        <v>0.11504853605286749</v>
+        <v>0.52440781570139627</v>
       </c>
       <c r="G161">
-        <v>0.5461669196403689</v>
+        <v>-1.8333506900525161</v>
       </c>
       <c r="H161">
-        <v>-0.56066392369150808</v>
+        <v>-0.47928548238373042</v>
       </c>
       <c r="I161">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J161">
-        <v>-0.81415370529000786</v>
+        <v>-0.59685539447410541</v>
       </c>
       <c r="K161">
-        <v>-2.2474339274229109</v>
+        <v>-0.92682204767856458</v>
       </c>
       <c r="L161">
-        <v>-1.353648941787104</v>
+        <v>-0.94791030475229965</v>
       </c>
       <c r="M161">
         <v>-0.46250204773865439</v>
@@ -8121,40 +8121,40 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C162" t="s">
         <v>31</v>
       </c>
       <c r="D162">
-        <v>1.855147482251708</v>
+        <v>2.4809368094485702</v>
       </c>
       <c r="E162">
-        <v>8.2975664808177252E-2</v>
+        <v>-1.1465728228039029</v>
       </c>
       <c r="F162">
         <v>1.7524856546469829</v>
       </c>
       <c r="G162">
-        <v>0.31257324953132448</v>
+        <v>-1.085502298434752</v>
       </c>
       <c r="H162">
-        <v>-0.60421211996339563</v>
+        <v>-0.65531174617594967</v>
       </c>
       <c r="I162">
         <v>-0.53449425950463025</v>
       </c>
       <c r="J162">
-        <v>-0.4359040251560482</v>
+        <v>-1.0537409815247569</v>
       </c>
       <c r="K162">
-        <v>-2.6649488143165332</v>
+        <v>-0.96842334497054205</v>
       </c>
       <c r="L162">
-        <v>-1.9487681639421781</v>
+        <v>-0.93027464743846311</v>
       </c>
       <c r="M162">
         <v>-0.46250204773865439</v>
